--- a/OpenCart Project/OpenCart.xlsx
+++ b/OpenCart Project/OpenCart.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="1" r:id="rId1"/>
     <sheet name="Test Scenario" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="from next" sheetId="3" r:id="rId3"/>
+    <sheet name="TS_001" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
   <si>
     <t>Date:</t>
   </si>
@@ -253,13 +254,49 @@
   </si>
   <si>
     <t>Validate the complete Application Functionality for different Currencies</t>
+  </si>
+  <si>
+    <t>Test Cases from next page begins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: </t>
+  </si>
+  <si>
+    <t>Precondition:</t>
+  </si>
+  <si>
+    <t>Test Steps Number</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Test Steps/Actions</t>
+  </si>
+  <si>
+    <t>Test Case Title</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +329,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -339,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -370,6 +415,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -1863,12 +1912,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="43.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="6:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="F9" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="7" spans="2:12" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OpenCart Project/OpenCart.xlsx
+++ b/OpenCart Project/OpenCart.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="130">
   <si>
     <t>Date:</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Test Cases from next page begins</t>
   </si>
   <si>
-    <t xml:space="preserve">Test Scenario: </t>
-  </si>
-  <si>
     <t>Precondition:</t>
   </si>
   <si>
@@ -290,13 +287,146 @@
   </si>
   <si>
     <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Scenario: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Validate the working of My Account- Register functionality</t>
+    </r>
+  </si>
+  <si>
+    <t>Select Yes or No for newslater to subscribe.</t>
+  </si>
+  <si>
+    <t>Press continue button.</t>
+  </si>
+  <si>
+    <t>Pankaj</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>pankaj@gmail.com</t>
+  </si>
+  <si>
+    <t>pankaj123</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>I agree</t>
+  </si>
+  <si>
+    <t>To validate all fields on register page when user enters valid inputs.</t>
+  </si>
+  <si>
+    <t>Click on firstname inputbox and enter valid first name</t>
+  </si>
+  <si>
+    <t>Click on lastname inputbox and enter valid last name.</t>
+  </si>
+  <si>
+    <t>Click on mail inputbox and enter valid email.</t>
+  </si>
+  <si>
+    <t>Click on password inputbox and enter valid password.</t>
+  </si>
+  <si>
+    <t>Click on checkbox to agree to the privacy policies.</t>
+  </si>
+  <si>
+    <t>Valid firstname should be displayed in inputbox.</t>
+  </si>
+  <si>
+    <t>Valid lastname should be displayed in inputbox.</t>
+  </si>
+  <si>
+    <t>Valid email should be displayed in inputbox.</t>
+  </si>
+  <si>
+    <t>Number of characters of password should be displayed is hidden format.</t>
+  </si>
+  <si>
+    <t>Yes radio button should get selected.</t>
+  </si>
+  <si>
+    <t>Checkbox should get checked.</t>
+  </si>
+  <si>
+    <t>After pressing continue button user should be redirected to login page successfully.</t>
+  </si>
+  <si>
+    <t>Type of Testing</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>Click on firstname inputbox and enter non-relatable value for firstname field.</t>
+  </si>
+  <si>
+    <t>Click on lastname inputbox and enter non-relatable value for lastname field.</t>
+  </si>
+  <si>
+    <t>Click on email inputbox and enter non-relatable value.</t>
+  </si>
+  <si>
+    <t>hsdkiu</t>
+  </si>
+  <si>
+    <t>Click on password inputbox and enter non-relatable value.</t>
+  </si>
+  <si>
+    <t>asjhdkas</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Don't click on checkbox to agree to the privacy policies.</t>
+  </si>
+  <si>
+    <t>I disagree</t>
+  </si>
+  <si>
+    <t>No radio button should get selected.</t>
+  </si>
+  <si>
+    <t>Entered value should be displayed in inputbox.</t>
+  </si>
+  <si>
+    <t>Checkbox should be unchecked.</t>
+  </si>
+  <si>
+    <t>After pressing it should show some errors messages like- Enter valid email and please check the checkbox. User should not be redirected to login page.</t>
+  </si>
+  <si>
+    <t>To validate all fields of register functionality when user enters non-relatable input for all perticular field.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +472,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -381,10 +527,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -420,8 +567,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -781,7 +944,7 @@
   <dimension ref="B3:E219"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,74 +2099,3544 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L7"/>
+  <dimension ref="B2:M463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="32.140625" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="39.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>80</v>
+    <row r="2" spans="2:13" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="M7" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="2">
+        <v>6</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="2">
+        <v>7</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C16" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1235478</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5895465</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="2">
+        <v>6</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="2">
+        <v>7</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="2"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="2"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="2"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="2"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="2"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="2"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="2"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="2"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="2"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="2"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="2"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="2"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="2"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="2"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="2"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="2"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="2"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="2"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="2"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="2"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="2"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="2"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="2"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="2"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="2"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="2"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67" s="2"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="2"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C69" s="2"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C70" s="2"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="2"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C72" s="2"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C73" s="2"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C74" s="2"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="15"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C75" s="2"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C76" s="2"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C77" s="2"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C78" s="2"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C79" s="2"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C80" s="2"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C81" s="2"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C82" s="2"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C83" s="2"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C84" s="2"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C85" s="2"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C86" s="2"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C87" s="2"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C88" s="2"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C89" s="2"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C90" s="2"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C91" s="2"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C92" s="2"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C93" s="2"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C94" s="2"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C95" s="2"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C96" s="2"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C97" s="2"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C98" s="2"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C99" s="2"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C100" s="2"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C101" s="2"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C102" s="2"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C103" s="2"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C104" s="2"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C105" s="2"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="15"/>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C106" s="2"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C107" s="2"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="15"/>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C108" s="2"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="15"/>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C109" s="2"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="15"/>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C110" s="2"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="15"/>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C111" s="2"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="15"/>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C112" s="2"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="15"/>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C113" s="2"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="15"/>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C114" s="2"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="15"/>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C115" s="2"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="15"/>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C116" s="2"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="15"/>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C117" s="2"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="15"/>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C118" s="2"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="15"/>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C119" s="2"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="15"/>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C120" s="2"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="15"/>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C121" s="2"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="15"/>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C122" s="2"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="15"/>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C123" s="2"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="15"/>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C124" s="2"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="15"/>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C125" s="2"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="15"/>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C126" s="2"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="15"/>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C127" s="2"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="15"/>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C128" s="2"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="15"/>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C129" s="2"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="15"/>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C130" s="2"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="15"/>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C131" s="2"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="15"/>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C132" s="2"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="15"/>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C133" s="2"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="15"/>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C134" s="2"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="15"/>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C135" s="2"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="15"/>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C136" s="2"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="15"/>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C137" s="2"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="15"/>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C138" s="2"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="15"/>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C139" s="2"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="15"/>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C140" s="2"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="15"/>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C141" s="2"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="15"/>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C142" s="2"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="15"/>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C143" s="2"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="15"/>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C144" s="2"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="15"/>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C145" s="2"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="15"/>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C146" s="2"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="15"/>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C147" s="2"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="15"/>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C148" s="2"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="15"/>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C149" s="2"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="15"/>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C150" s="2"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="15"/>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C151" s="2"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="15"/>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C152" s="2"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="15"/>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C153" s="2"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="15"/>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C154" s="2"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="15"/>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C155" s="2"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="15"/>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C156" s="2"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="15"/>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C157" s="2"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="15"/>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C158" s="2"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="15"/>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C159" s="2"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="15"/>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C160" s="2"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="15"/>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C161" s="2"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="15"/>
+    </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C162" s="2"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="15"/>
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C163" s="2"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="15"/>
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C164" s="2"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="15"/>
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C165" s="2"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="15"/>
+    </row>
+    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C166" s="2"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="15"/>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C167" s="2"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="15"/>
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C168" s="2"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="15"/>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C169" s="2"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="15"/>
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C170" s="2"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="15"/>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C171" s="2"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="15"/>
+    </row>
+    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C172" s="2"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="15"/>
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C173" s="2"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="15"/>
+    </row>
+    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C174" s="2"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="15"/>
+    </row>
+    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C175" s="2"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="15"/>
+    </row>
+    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C176" s="2"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="15"/>
+    </row>
+    <row r="177" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C177" s="2"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="15"/>
+    </row>
+    <row r="178" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C178" s="2"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="15"/>
+    </row>
+    <row r="179" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C179" s="2"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="15"/>
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C180" s="2"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="15"/>
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C181" s="2"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="15"/>
+    </row>
+    <row r="182" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C182" s="2"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="15"/>
+    </row>
+    <row r="183" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C183" s="2"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="15"/>
+    </row>
+    <row r="184" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C184" s="2"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="15"/>
+    </row>
+    <row r="185" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C185" s="2"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="15"/>
+    </row>
+    <row r="186" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C186" s="2"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="15"/>
+    </row>
+    <row r="187" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C187" s="2"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="15"/>
+    </row>
+    <row r="188" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C188" s="2"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="15"/>
+    </row>
+    <row r="189" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C189" s="2"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="15"/>
+    </row>
+    <row r="190" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C190" s="2"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="15"/>
+    </row>
+    <row r="191" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C191" s="2"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="15"/>
+    </row>
+    <row r="192" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C192" s="2"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="15"/>
+    </row>
+    <row r="193" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C193" s="2"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="15"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="15"/>
+    </row>
+    <row r="194" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C194" s="2"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="15"/>
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C195" s="2"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="15"/>
+    </row>
+    <row r="196" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C196" s="2"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="15"/>
+    </row>
+    <row r="197" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C197" s="2"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="15"/>
+    </row>
+    <row r="198" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C198" s="2"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="15"/>
+    </row>
+    <row r="199" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C199" s="2"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="15"/>
+    </row>
+    <row r="200" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C200" s="2"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="15"/>
+    </row>
+    <row r="201" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C201" s="2"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="15"/>
+    </row>
+    <row r="202" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C202" s="2"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="15"/>
+    </row>
+    <row r="203" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C203" s="2"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="15"/>
+    </row>
+    <row r="204" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C204" s="2"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="15"/>
+    </row>
+    <row r="205" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C205" s="2"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="15"/>
+    </row>
+    <row r="206" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C206" s="2"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="15"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="15"/>
+    </row>
+    <row r="207" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C207" s="2"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="15"/>
+    </row>
+    <row r="208" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C208" s="2"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="15"/>
+    </row>
+    <row r="209" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C209" s="2"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="15"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="15"/>
+    </row>
+    <row r="210" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C210" s="2"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="15"/>
+    </row>
+    <row r="211" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C211" s="2"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="15"/>
+    </row>
+    <row r="212" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C212" s="2"/>
+      <c r="D212" s="15"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="15"/>
+    </row>
+    <row r="213" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C213" s="2"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="15"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="15"/>
+    </row>
+    <row r="214" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C214" s="2"/>
+      <c r="D214" s="15"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="15"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="15"/>
+    </row>
+    <row r="215" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C215" s="2"/>
+      <c r="D215" s="15"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="15"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="15"/>
+    </row>
+    <row r="216" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C216" s="2"/>
+      <c r="D216" s="15"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="15"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="15"/>
+    </row>
+    <row r="217" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C217" s="2"/>
+      <c r="D217" s="15"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="15"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="15"/>
+    </row>
+    <row r="218" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C218" s="2"/>
+      <c r="D218" s="15"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="15"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="15"/>
+    </row>
+    <row r="219" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C219" s="2"/>
+      <c r="D219" s="15"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="15"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="15"/>
+    </row>
+    <row r="220" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C220" s="2"/>
+      <c r="D220" s="15"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="15"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="15"/>
+    </row>
+    <row r="221" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C221" s="2"/>
+      <c r="D221" s="15"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="15"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="15"/>
+    </row>
+    <row r="222" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C222" s="2"/>
+      <c r="D222" s="15"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="15"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="15"/>
+    </row>
+    <row r="223" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C223" s="2"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="15"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="15"/>
+    </row>
+    <row r="224" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C224" s="2"/>
+      <c r="D224" s="15"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="15"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="15"/>
+    </row>
+    <row r="225" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C225" s="2"/>
+      <c r="D225" s="15"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="15"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="15"/>
+    </row>
+    <row r="226" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C226" s="2"/>
+      <c r="D226" s="15"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="15"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="15"/>
+    </row>
+    <row r="227" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C227" s="2"/>
+      <c r="D227" s="15"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="15"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="15"/>
+    </row>
+    <row r="228" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C228" s="2"/>
+      <c r="D228" s="15"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="15"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="15"/>
+    </row>
+    <row r="229" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C229" s="2"/>
+      <c r="D229" s="15"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="15"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="15"/>
+    </row>
+    <row r="230" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C230" s="2"/>
+      <c r="D230" s="15"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="15"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="15"/>
+    </row>
+    <row r="231" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C231" s="2"/>
+      <c r="D231" s="15"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="15"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="15"/>
+    </row>
+    <row r="232" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C232" s="2"/>
+      <c r="D232" s="15"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="15"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="15"/>
+    </row>
+    <row r="233" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C233" s="2"/>
+      <c r="D233" s="15"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="15"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="15"/>
+    </row>
+    <row r="234" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C234" s="2"/>
+      <c r="D234" s="15"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="15"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="15"/>
+    </row>
+    <row r="235" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C235" s="2"/>
+      <c r="D235" s="15"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="15"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="15"/>
+    </row>
+    <row r="236" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C236" s="2"/>
+      <c r="D236" s="15"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="15"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="15"/>
+    </row>
+    <row r="237" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C237" s="2"/>
+      <c r="D237" s="15"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="15"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="15"/>
+    </row>
+    <row r="238" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C238" s="2"/>
+      <c r="D238" s="15"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="15"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="15"/>
+    </row>
+    <row r="239" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C239" s="2"/>
+      <c r="D239" s="15"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="15"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="15"/>
+    </row>
+    <row r="240" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C240" s="2"/>
+      <c r="D240" s="15"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="15"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="15"/>
+    </row>
+    <row r="241" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C241" s="2"/>
+      <c r="D241" s="15"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="15"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="15"/>
+    </row>
+    <row r="242" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C242" s="2"/>
+      <c r="D242" s="15"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="15"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="15"/>
+    </row>
+    <row r="243" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C243" s="2"/>
+      <c r="D243" s="15"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="15"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="15"/>
+    </row>
+    <row r="244" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C244" s="2"/>
+      <c r="D244" s="15"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="15"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="15"/>
+    </row>
+    <row r="245" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C245" s="2"/>
+      <c r="D245" s="15"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="15"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="15"/>
+    </row>
+    <row r="246" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C246" s="2"/>
+      <c r="D246" s="15"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="15"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="15"/>
+    </row>
+    <row r="247" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C247" s="2"/>
+      <c r="D247" s="15"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="15"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="15"/>
+    </row>
+    <row r="248" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C248" s="2"/>
+      <c r="D248" s="15"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="15"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="15"/>
+    </row>
+    <row r="249" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C249" s="2"/>
+      <c r="D249" s="15"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="15"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="15"/>
+    </row>
+    <row r="250" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C250" s="2"/>
+      <c r="D250" s="15"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="15"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="15"/>
+    </row>
+    <row r="251" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C251" s="2"/>
+      <c r="D251" s="15"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="15"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="15"/>
+    </row>
+    <row r="252" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C252" s="2"/>
+      <c r="D252" s="15"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="15"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="15"/>
+    </row>
+    <row r="253" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C253" s="2"/>
+      <c r="D253" s="15"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="15"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="15"/>
+    </row>
+    <row r="254" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C254" s="2"/>
+      <c r="D254" s="15"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="15"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="15"/>
+    </row>
+    <row r="255" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C255" s="2"/>
+      <c r="D255" s="15"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="15"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="15"/>
+    </row>
+    <row r="256" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C256" s="2"/>
+      <c r="D256" s="15"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="15"/>
+      <c r="G256" s="2"/>
+      <c r="H256" s="15"/>
+    </row>
+    <row r="257" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C257" s="2"/>
+      <c r="D257" s="15"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="15"/>
+      <c r="G257" s="2"/>
+      <c r="H257" s="15"/>
+    </row>
+    <row r="258" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C258" s="2"/>
+      <c r="D258" s="15"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="15"/>
+      <c r="G258" s="2"/>
+      <c r="H258" s="15"/>
+    </row>
+    <row r="259" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C259" s="2"/>
+      <c r="D259" s="15"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="15"/>
+      <c r="G259" s="2"/>
+      <c r="H259" s="15"/>
+    </row>
+    <row r="260" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C260" s="2"/>
+      <c r="D260" s="15"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="15"/>
+      <c r="G260" s="2"/>
+      <c r="H260" s="15"/>
+    </row>
+    <row r="261" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C261" s="2"/>
+      <c r="D261" s="15"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="15"/>
+      <c r="G261" s="2"/>
+      <c r="H261" s="15"/>
+    </row>
+    <row r="262" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C262" s="2"/>
+      <c r="D262" s="15"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="15"/>
+      <c r="G262" s="2"/>
+      <c r="H262" s="15"/>
+    </row>
+    <row r="263" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C263" s="2"/>
+      <c r="D263" s="15"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="15"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="15"/>
+    </row>
+    <row r="264" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C264" s="2"/>
+      <c r="D264" s="15"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="15"/>
+      <c r="G264" s="2"/>
+      <c r="H264" s="15"/>
+    </row>
+    <row r="265" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C265" s="2"/>
+      <c r="D265" s="15"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="15"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="15"/>
+    </row>
+    <row r="266" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C266" s="2"/>
+      <c r="D266" s="15"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="15"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="15"/>
+    </row>
+    <row r="267" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C267" s="2"/>
+      <c r="D267" s="15"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="15"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="15"/>
+    </row>
+    <row r="268" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C268" s="2"/>
+      <c r="D268" s="15"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="15"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="15"/>
+    </row>
+    <row r="269" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C269" s="2"/>
+      <c r="D269" s="15"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="15"/>
+      <c r="G269" s="2"/>
+      <c r="H269" s="15"/>
+    </row>
+    <row r="270" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C270" s="2"/>
+      <c r="D270" s="15"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="15"/>
+      <c r="G270" s="2"/>
+      <c r="H270" s="15"/>
+    </row>
+    <row r="271" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C271" s="2"/>
+      <c r="D271" s="15"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="15"/>
+      <c r="G271" s="2"/>
+      <c r="H271" s="15"/>
+    </row>
+    <row r="272" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C272" s="2"/>
+      <c r="D272" s="15"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="15"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="15"/>
+    </row>
+    <row r="273" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C273" s="2"/>
+      <c r="D273" s="15"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="15"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="15"/>
+    </row>
+    <row r="274" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C274" s="2"/>
+      <c r="D274" s="15"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="15"/>
+      <c r="G274" s="2"/>
+      <c r="H274" s="15"/>
+    </row>
+    <row r="275" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C275" s="2"/>
+      <c r="D275" s="15"/>
+      <c r="E275" s="2"/>
+      <c r="F275" s="15"/>
+      <c r="G275" s="2"/>
+      <c r="H275" s="15"/>
+    </row>
+    <row r="276" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C276" s="2"/>
+      <c r="D276" s="15"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="15"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="15"/>
+    </row>
+    <row r="277" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C277" s="2"/>
+      <c r="D277" s="15"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="15"/>
+      <c r="G277" s="2"/>
+      <c r="H277" s="15"/>
+    </row>
+    <row r="278" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C278" s="2"/>
+      <c r="D278" s="15"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="15"/>
+      <c r="G278" s="2"/>
+      <c r="H278" s="15"/>
+    </row>
+    <row r="279" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C279" s="2"/>
+      <c r="D279" s="15"/>
+      <c r="E279" s="2"/>
+      <c r="F279" s="15"/>
+      <c r="G279" s="2"/>
+      <c r="H279" s="15"/>
+    </row>
+    <row r="280" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C280" s="2"/>
+      <c r="D280" s="15"/>
+      <c r="E280" s="2"/>
+      <c r="F280" s="15"/>
+      <c r="G280" s="2"/>
+      <c r="H280" s="15"/>
+    </row>
+    <row r="281" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C281" s="2"/>
+      <c r="D281" s="15"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="15"/>
+      <c r="G281" s="2"/>
+      <c r="H281" s="15"/>
+    </row>
+    <row r="282" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C282" s="2"/>
+      <c r="D282" s="15"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="15"/>
+      <c r="G282" s="2"/>
+      <c r="H282" s="15"/>
+    </row>
+    <row r="283" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C283" s="2"/>
+      <c r="D283" s="15"/>
+      <c r="E283" s="2"/>
+      <c r="F283" s="15"/>
+      <c r="G283" s="2"/>
+      <c r="H283" s="15"/>
+    </row>
+    <row r="284" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C284" s="2"/>
+      <c r="D284" s="15"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="15"/>
+      <c r="G284" s="2"/>
+      <c r="H284" s="15"/>
+    </row>
+    <row r="285" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C285" s="2"/>
+      <c r="D285" s="15"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="15"/>
+      <c r="G285" s="2"/>
+      <c r="H285" s="15"/>
+    </row>
+    <row r="286" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C286" s="2"/>
+      <c r="D286" s="15"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="15"/>
+      <c r="G286" s="2"/>
+      <c r="H286" s="15"/>
+    </row>
+    <row r="287" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C287" s="2"/>
+      <c r="D287" s="15"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="15"/>
+      <c r="G287" s="2"/>
+      <c r="H287" s="15"/>
+    </row>
+    <row r="288" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C288" s="2"/>
+      <c r="D288" s="15"/>
+      <c r="E288" s="2"/>
+      <c r="F288" s="15"/>
+      <c r="G288" s="2"/>
+      <c r="H288" s="15"/>
+    </row>
+    <row r="289" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C289" s="2"/>
+      <c r="D289" s="15"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="15"/>
+      <c r="G289" s="2"/>
+      <c r="H289" s="15"/>
+    </row>
+    <row r="290" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C290" s="2"/>
+      <c r="D290" s="15"/>
+      <c r="E290" s="2"/>
+      <c r="F290" s="15"/>
+      <c r="G290" s="2"/>
+      <c r="H290" s="15"/>
+    </row>
+    <row r="291" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C291" s="2"/>
+      <c r="D291" s="15"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="15"/>
+      <c r="G291" s="2"/>
+      <c r="H291" s="15"/>
+    </row>
+    <row r="292" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C292" s="2"/>
+      <c r="D292" s="15"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="15"/>
+      <c r="G292" s="2"/>
+      <c r="H292" s="15"/>
+    </row>
+    <row r="293" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C293" s="2"/>
+      <c r="D293" s="15"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="15"/>
+      <c r="G293" s="2"/>
+      <c r="H293" s="15"/>
+    </row>
+    <row r="294" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C294" s="2"/>
+      <c r="D294" s="15"/>
+      <c r="E294" s="2"/>
+      <c r="F294" s="15"/>
+      <c r="G294" s="2"/>
+      <c r="H294" s="15"/>
+    </row>
+    <row r="295" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C295" s="2"/>
+      <c r="D295" s="15"/>
+      <c r="E295" s="2"/>
+      <c r="F295" s="15"/>
+      <c r="G295" s="2"/>
+      <c r="H295" s="15"/>
+    </row>
+    <row r="296" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C296" s="2"/>
+      <c r="D296" s="15"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="15"/>
+      <c r="G296" s="2"/>
+      <c r="H296" s="15"/>
+    </row>
+    <row r="297" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C297" s="2"/>
+      <c r="D297" s="15"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="15"/>
+      <c r="G297" s="2"/>
+      <c r="H297" s="15"/>
+    </row>
+    <row r="298" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C298" s="2"/>
+      <c r="D298" s="15"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="15"/>
+      <c r="G298" s="2"/>
+      <c r="H298" s="15"/>
+    </row>
+    <row r="299" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C299" s="2"/>
+      <c r="D299" s="15"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="15"/>
+      <c r="G299" s="2"/>
+      <c r="H299" s="15"/>
+    </row>
+    <row r="300" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C300" s="2"/>
+      <c r="D300" s="15"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="15"/>
+      <c r="G300" s="2"/>
+      <c r="H300" s="15"/>
+    </row>
+    <row r="301" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C301" s="2"/>
+      <c r="D301" s="15"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="15"/>
+      <c r="G301" s="2"/>
+      <c r="H301" s="15"/>
+    </row>
+    <row r="302" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C302" s="2"/>
+      <c r="D302" s="15"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="15"/>
+      <c r="G302" s="2"/>
+      <c r="H302" s="15"/>
+    </row>
+    <row r="303" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C303" s="2"/>
+      <c r="D303" s="15"/>
+      <c r="E303" s="2"/>
+      <c r="F303" s="15"/>
+      <c r="G303" s="2"/>
+      <c r="H303" s="15"/>
+    </row>
+    <row r="304" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C304" s="2"/>
+      <c r="D304" s="15"/>
+      <c r="E304" s="2"/>
+      <c r="F304" s="15"/>
+      <c r="G304" s="2"/>
+      <c r="H304" s="15"/>
+    </row>
+    <row r="305" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C305" s="2"/>
+      <c r="D305" s="15"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="15"/>
+      <c r="G305" s="2"/>
+      <c r="H305" s="15"/>
+    </row>
+    <row r="306" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C306" s="2"/>
+      <c r="D306" s="15"/>
+      <c r="E306" s="2"/>
+      <c r="F306" s="15"/>
+      <c r="G306" s="2"/>
+      <c r="H306" s="15"/>
+    </row>
+    <row r="307" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C307" s="2"/>
+      <c r="D307" s="15"/>
+      <c r="E307" s="2"/>
+      <c r="F307" s="15"/>
+      <c r="G307" s="2"/>
+      <c r="H307" s="15"/>
+    </row>
+    <row r="308" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C308" s="2"/>
+      <c r="D308" s="15"/>
+      <c r="E308" s="2"/>
+      <c r="F308" s="15"/>
+      <c r="G308" s="2"/>
+      <c r="H308" s="15"/>
+    </row>
+    <row r="309" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C309" s="2"/>
+      <c r="D309" s="15"/>
+      <c r="E309" s="2"/>
+      <c r="F309" s="15"/>
+      <c r="G309" s="2"/>
+      <c r="H309" s="15"/>
+    </row>
+    <row r="310" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C310" s="2"/>
+      <c r="D310" s="15"/>
+      <c r="E310" s="2"/>
+      <c r="F310" s="15"/>
+      <c r="G310" s="2"/>
+      <c r="H310" s="15"/>
+    </row>
+    <row r="311" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C311" s="2"/>
+      <c r="D311" s="15"/>
+      <c r="E311" s="2"/>
+      <c r="F311" s="15"/>
+      <c r="G311" s="2"/>
+      <c r="H311" s="15"/>
+    </row>
+    <row r="312" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C312" s="2"/>
+      <c r="D312" s="15"/>
+      <c r="E312" s="2"/>
+      <c r="F312" s="15"/>
+      <c r="G312" s="2"/>
+      <c r="H312" s="15"/>
+    </row>
+    <row r="313" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C313" s="2"/>
+      <c r="D313" s="15"/>
+      <c r="E313" s="2"/>
+      <c r="F313" s="15"/>
+      <c r="G313" s="2"/>
+      <c r="H313" s="15"/>
+    </row>
+    <row r="314" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C314" s="2"/>
+      <c r="D314" s="15"/>
+      <c r="E314" s="2"/>
+      <c r="F314" s="15"/>
+      <c r="G314" s="2"/>
+      <c r="H314" s="15"/>
+    </row>
+    <row r="315" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C315" s="2"/>
+      <c r="D315" s="15"/>
+      <c r="E315" s="2"/>
+      <c r="F315" s="15"/>
+      <c r="G315" s="2"/>
+      <c r="H315" s="15"/>
+    </row>
+    <row r="316" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C316" s="2"/>
+      <c r="D316" s="15"/>
+      <c r="E316" s="2"/>
+      <c r="F316" s="15"/>
+      <c r="G316" s="2"/>
+      <c r="H316" s="15"/>
+    </row>
+    <row r="317" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C317" s="2"/>
+      <c r="D317" s="15"/>
+      <c r="E317" s="2"/>
+      <c r="F317" s="15"/>
+      <c r="G317" s="2"/>
+      <c r="H317" s="15"/>
+    </row>
+    <row r="318" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C318" s="2"/>
+      <c r="D318" s="15"/>
+      <c r="E318" s="2"/>
+      <c r="F318" s="15"/>
+      <c r="G318" s="2"/>
+      <c r="H318" s="15"/>
+    </row>
+    <row r="319" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C319" s="2"/>
+      <c r="D319" s="15"/>
+      <c r="E319" s="2"/>
+      <c r="F319" s="15"/>
+      <c r="G319" s="2"/>
+      <c r="H319" s="15"/>
+    </row>
+    <row r="320" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C320" s="2"/>
+      <c r="D320" s="15"/>
+      <c r="E320" s="2"/>
+      <c r="F320" s="15"/>
+      <c r="G320" s="2"/>
+      <c r="H320" s="15"/>
+    </row>
+    <row r="321" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C321" s="2"/>
+      <c r="D321" s="15"/>
+      <c r="E321" s="2"/>
+      <c r="F321" s="15"/>
+      <c r="G321" s="2"/>
+      <c r="H321" s="15"/>
+    </row>
+    <row r="322" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C322" s="2"/>
+      <c r="D322" s="15"/>
+      <c r="E322" s="2"/>
+      <c r="F322" s="15"/>
+      <c r="G322" s="2"/>
+      <c r="H322" s="15"/>
+    </row>
+    <row r="323" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C323" s="2"/>
+      <c r="D323" s="15"/>
+      <c r="E323" s="2"/>
+      <c r="F323" s="15"/>
+      <c r="G323" s="2"/>
+      <c r="H323" s="15"/>
+    </row>
+    <row r="324" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C324" s="2"/>
+      <c r="D324" s="15"/>
+      <c r="E324" s="2"/>
+      <c r="F324" s="15"/>
+      <c r="G324" s="2"/>
+      <c r="H324" s="15"/>
+    </row>
+    <row r="325" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C325" s="2"/>
+      <c r="D325" s="15"/>
+      <c r="E325" s="2"/>
+      <c r="F325" s="15"/>
+      <c r="G325" s="2"/>
+      <c r="H325" s="15"/>
+    </row>
+    <row r="326" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C326" s="2"/>
+      <c r="D326" s="15"/>
+      <c r="E326" s="2"/>
+      <c r="F326" s="15"/>
+      <c r="G326" s="2"/>
+      <c r="H326" s="15"/>
+    </row>
+    <row r="327" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C327" s="2"/>
+      <c r="D327" s="15"/>
+      <c r="E327" s="2"/>
+      <c r="F327" s="15"/>
+      <c r="G327" s="2"/>
+      <c r="H327" s="15"/>
+    </row>
+    <row r="328" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C328" s="2"/>
+      <c r="D328" s="15"/>
+      <c r="E328" s="2"/>
+      <c r="F328" s="15"/>
+      <c r="G328" s="2"/>
+      <c r="H328" s="15"/>
+    </row>
+    <row r="329" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C329" s="2"/>
+      <c r="D329" s="15"/>
+      <c r="E329" s="2"/>
+      <c r="F329" s="15"/>
+      <c r="G329" s="2"/>
+      <c r="H329" s="15"/>
+    </row>
+    <row r="330" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C330" s="2"/>
+      <c r="D330" s="15"/>
+      <c r="E330" s="2"/>
+      <c r="F330" s="15"/>
+      <c r="G330" s="2"/>
+      <c r="H330" s="15"/>
+    </row>
+    <row r="331" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C331" s="2"/>
+      <c r="D331" s="15"/>
+      <c r="E331" s="2"/>
+      <c r="F331" s="15"/>
+      <c r="G331" s="2"/>
+      <c r="H331" s="15"/>
+    </row>
+    <row r="332" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C332" s="2"/>
+      <c r="D332" s="15"/>
+      <c r="E332" s="2"/>
+      <c r="F332" s="15"/>
+      <c r="G332" s="2"/>
+      <c r="H332" s="15"/>
+    </row>
+    <row r="333" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C333" s="2"/>
+      <c r="D333" s="15"/>
+      <c r="E333" s="2"/>
+      <c r="F333" s="15"/>
+      <c r="G333" s="2"/>
+      <c r="H333" s="15"/>
+    </row>
+    <row r="334" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C334" s="2"/>
+      <c r="D334" s="15"/>
+      <c r="E334" s="2"/>
+      <c r="F334" s="15"/>
+      <c r="G334" s="2"/>
+      <c r="H334" s="15"/>
+    </row>
+    <row r="335" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C335" s="2"/>
+      <c r="D335" s="15"/>
+      <c r="E335" s="2"/>
+      <c r="F335" s="15"/>
+      <c r="G335" s="2"/>
+      <c r="H335" s="15"/>
+    </row>
+    <row r="336" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C336" s="2"/>
+      <c r="D336" s="15"/>
+      <c r="E336" s="2"/>
+      <c r="F336" s="15"/>
+      <c r="G336" s="2"/>
+      <c r="H336" s="15"/>
+    </row>
+    <row r="337" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C337" s="2"/>
+      <c r="D337" s="15"/>
+      <c r="E337" s="2"/>
+      <c r="F337" s="15"/>
+      <c r="G337" s="2"/>
+      <c r="H337" s="15"/>
+    </row>
+    <row r="338" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C338" s="2"/>
+      <c r="D338" s="15"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="15"/>
+      <c r="G338" s="2"/>
+      <c r="H338" s="15"/>
+    </row>
+    <row r="339" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C339" s="2"/>
+      <c r="D339" s="15"/>
+      <c r="E339" s="2"/>
+      <c r="F339" s="15"/>
+      <c r="G339" s="2"/>
+      <c r="H339" s="15"/>
+    </row>
+    <row r="340" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C340" s="2"/>
+      <c r="D340" s="15"/>
+      <c r="E340" s="2"/>
+      <c r="F340" s="15"/>
+      <c r="G340" s="2"/>
+      <c r="H340" s="15"/>
+    </row>
+    <row r="341" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C341" s="2"/>
+      <c r="D341" s="15"/>
+      <c r="E341" s="2"/>
+      <c r="F341" s="15"/>
+      <c r="G341" s="2"/>
+      <c r="H341" s="15"/>
+    </row>
+    <row r="342" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C342" s="2"/>
+      <c r="D342" s="15"/>
+      <c r="E342" s="2"/>
+      <c r="F342" s="15"/>
+      <c r="G342" s="2"/>
+      <c r="H342" s="15"/>
+    </row>
+    <row r="343" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C343" s="2"/>
+      <c r="D343" s="15"/>
+      <c r="E343" s="2"/>
+      <c r="F343" s="15"/>
+      <c r="G343" s="2"/>
+      <c r="H343" s="15"/>
+    </row>
+    <row r="344" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C344" s="2"/>
+      <c r="D344" s="15"/>
+      <c r="E344" s="2"/>
+      <c r="F344" s="15"/>
+      <c r="G344" s="2"/>
+      <c r="H344" s="15"/>
+    </row>
+    <row r="345" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C345" s="2"/>
+      <c r="D345" s="15"/>
+      <c r="E345" s="2"/>
+      <c r="F345" s="15"/>
+      <c r="G345" s="2"/>
+      <c r="H345" s="15"/>
+    </row>
+    <row r="346" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C346" s="2"/>
+      <c r="D346" s="15"/>
+      <c r="E346" s="2"/>
+      <c r="F346" s="15"/>
+      <c r="G346" s="2"/>
+      <c r="H346" s="15"/>
+    </row>
+    <row r="347" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C347" s="2"/>
+      <c r="D347" s="15"/>
+      <c r="E347" s="2"/>
+      <c r="F347" s="15"/>
+      <c r="G347" s="2"/>
+      <c r="H347" s="15"/>
+    </row>
+    <row r="348" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C348" s="2"/>
+      <c r="D348" s="15"/>
+      <c r="E348" s="2"/>
+      <c r="F348" s="15"/>
+      <c r="G348" s="2"/>
+      <c r="H348" s="15"/>
+    </row>
+    <row r="349" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C349" s="2"/>
+      <c r="D349" s="15"/>
+      <c r="E349" s="2"/>
+      <c r="F349" s="15"/>
+      <c r="G349" s="2"/>
+      <c r="H349" s="15"/>
+    </row>
+    <row r="350" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C350" s="2"/>
+      <c r="D350" s="15"/>
+      <c r="E350" s="2"/>
+      <c r="F350" s="15"/>
+      <c r="G350" s="2"/>
+      <c r="H350" s="15"/>
+    </row>
+    <row r="351" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C351" s="2"/>
+      <c r="D351" s="15"/>
+      <c r="E351" s="2"/>
+      <c r="F351" s="15"/>
+      <c r="G351" s="2"/>
+      <c r="H351" s="15"/>
+    </row>
+    <row r="352" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C352" s="2"/>
+      <c r="D352" s="15"/>
+      <c r="E352" s="2"/>
+      <c r="F352" s="15"/>
+      <c r="G352" s="2"/>
+      <c r="H352" s="15"/>
+    </row>
+    <row r="353" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C353" s="2"/>
+      <c r="D353" s="15"/>
+      <c r="E353" s="2"/>
+      <c r="F353" s="15"/>
+      <c r="G353" s="2"/>
+      <c r="H353" s="15"/>
+    </row>
+    <row r="354" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C354" s="2"/>
+      <c r="D354" s="15"/>
+      <c r="E354" s="2"/>
+      <c r="F354" s="15"/>
+      <c r="G354" s="2"/>
+      <c r="H354" s="15"/>
+    </row>
+    <row r="355" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C355" s="2"/>
+      <c r="D355" s="15"/>
+      <c r="E355" s="2"/>
+      <c r="F355" s="15"/>
+      <c r="G355" s="2"/>
+      <c r="H355" s="15"/>
+    </row>
+    <row r="356" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C356" s="2"/>
+      <c r="D356" s="15"/>
+      <c r="E356" s="2"/>
+      <c r="F356" s="15"/>
+      <c r="G356" s="2"/>
+      <c r="H356" s="15"/>
+    </row>
+    <row r="357" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C357" s="2"/>
+      <c r="D357" s="15"/>
+      <c r="E357" s="2"/>
+      <c r="F357" s="15"/>
+      <c r="G357" s="2"/>
+      <c r="H357" s="15"/>
+    </row>
+    <row r="358" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C358" s="2"/>
+      <c r="D358" s="15"/>
+      <c r="E358" s="2"/>
+      <c r="F358" s="15"/>
+      <c r="G358" s="2"/>
+      <c r="H358" s="15"/>
+    </row>
+    <row r="359" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C359" s="2"/>
+      <c r="D359" s="15"/>
+      <c r="E359" s="2"/>
+      <c r="F359" s="15"/>
+      <c r="G359" s="2"/>
+      <c r="H359" s="15"/>
+    </row>
+    <row r="360" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C360" s="2"/>
+      <c r="D360" s="15"/>
+      <c r="E360" s="2"/>
+      <c r="F360" s="15"/>
+      <c r="G360" s="2"/>
+      <c r="H360" s="15"/>
+    </row>
+    <row r="361" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C361" s="2"/>
+      <c r="D361" s="15"/>
+      <c r="E361" s="2"/>
+      <c r="F361" s="15"/>
+      <c r="G361" s="2"/>
+      <c r="H361" s="15"/>
+    </row>
+    <row r="362" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C362" s="2"/>
+      <c r="D362" s="15"/>
+      <c r="E362" s="2"/>
+      <c r="F362" s="15"/>
+      <c r="G362" s="2"/>
+      <c r="H362" s="15"/>
+    </row>
+    <row r="363" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C363" s="2"/>
+      <c r="D363" s="15"/>
+      <c r="E363" s="2"/>
+      <c r="F363" s="15"/>
+      <c r="G363" s="2"/>
+      <c r="H363" s="15"/>
+    </row>
+    <row r="364" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C364" s="2"/>
+      <c r="D364" s="15"/>
+      <c r="E364" s="2"/>
+      <c r="F364" s="15"/>
+      <c r="G364" s="2"/>
+      <c r="H364" s="15"/>
+    </row>
+    <row r="365" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C365" s="2"/>
+      <c r="D365" s="15"/>
+      <c r="E365" s="2"/>
+      <c r="F365" s="15"/>
+      <c r="G365" s="2"/>
+      <c r="H365" s="15"/>
+    </row>
+    <row r="366" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C366" s="2"/>
+      <c r="D366" s="15"/>
+      <c r="E366" s="2"/>
+      <c r="F366" s="15"/>
+      <c r="G366" s="2"/>
+      <c r="H366" s="15"/>
+    </row>
+    <row r="367" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C367" s="2"/>
+      <c r="D367" s="15"/>
+      <c r="E367" s="2"/>
+      <c r="F367" s="15"/>
+      <c r="G367" s="2"/>
+      <c r="H367" s="15"/>
+    </row>
+    <row r="368" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C368" s="2"/>
+      <c r="D368" s="15"/>
+      <c r="E368" s="2"/>
+      <c r="F368" s="15"/>
+      <c r="G368" s="2"/>
+      <c r="H368" s="15"/>
+    </row>
+    <row r="369" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C369" s="2"/>
+      <c r="D369" s="15"/>
+      <c r="E369" s="2"/>
+      <c r="F369" s="15"/>
+      <c r="G369" s="2"/>
+      <c r="H369" s="15"/>
+    </row>
+    <row r="370" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C370" s="2"/>
+      <c r="D370" s="15"/>
+      <c r="E370" s="2"/>
+      <c r="F370" s="15"/>
+      <c r="G370" s="2"/>
+      <c r="H370" s="15"/>
+    </row>
+    <row r="371" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C371" s="2"/>
+      <c r="D371" s="15"/>
+      <c r="E371" s="2"/>
+      <c r="G371" s="2"/>
+      <c r="H371" s="15"/>
+    </row>
+    <row r="372" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C372" s="2"/>
+      <c r="D372" s="15"/>
+      <c r="E372" s="2"/>
+      <c r="G372" s="2"/>
+      <c r="H372" s="15"/>
+    </row>
+    <row r="373" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C373" s="2"/>
+      <c r="D373" s="15"/>
+      <c r="E373" s="2"/>
+      <c r="G373" s="2"/>
+      <c r="H373" s="15"/>
+    </row>
+    <row r="374" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C374" s="2"/>
+      <c r="D374" s="15"/>
+      <c r="E374" s="2"/>
+      <c r="G374" s="2"/>
+      <c r="H374" s="15"/>
+    </row>
+    <row r="375" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C375" s="2"/>
+      <c r="D375" s="15"/>
+      <c r="E375" s="2"/>
+      <c r="H375" s="15"/>
+    </row>
+    <row r="376" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C376" s="2"/>
+      <c r="D376" s="15"/>
+      <c r="E376" s="2"/>
+      <c r="H376" s="15"/>
+    </row>
+    <row r="377" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C377" s="2"/>
+      <c r="D377" s="15"/>
+      <c r="E377" s="2"/>
+      <c r="H377" s="15"/>
+    </row>
+    <row r="378" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C378" s="2"/>
+      <c r="D378" s="15"/>
+      <c r="E378" s="2"/>
+      <c r="H378" s="15"/>
+    </row>
+    <row r="379" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C379" s="2"/>
+      <c r="D379" s="15"/>
+      <c r="E379" s="2"/>
+      <c r="H379" s="15"/>
+    </row>
+    <row r="380" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C380" s="2"/>
+      <c r="D380" s="15"/>
+      <c r="E380" s="2"/>
+      <c r="H380" s="15"/>
+    </row>
+    <row r="381" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C381" s="2"/>
+      <c r="D381" s="15"/>
+      <c r="E381" s="2"/>
+      <c r="H381" s="15"/>
+    </row>
+    <row r="382" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C382" s="2"/>
+      <c r="D382" s="15"/>
+      <c r="E382" s="2"/>
+      <c r="H382" s="15"/>
+    </row>
+    <row r="383" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D383" s="15"/>
+      <c r="E383" s="2"/>
+      <c r="H383" s="15"/>
+    </row>
+    <row r="384" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D384" s="15"/>
+      <c r="E384" s="2"/>
+      <c r="H384" s="15"/>
+    </row>
+    <row r="385" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D385" s="15"/>
+      <c r="E385" s="2"/>
+      <c r="H385" s="15"/>
+    </row>
+    <row r="386" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D386" s="15"/>
+      <c r="E386" s="2"/>
+      <c r="H386" s="15"/>
+    </row>
+    <row r="387" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D387" s="15"/>
+      <c r="E387" s="2"/>
+      <c r="H387" s="15"/>
+    </row>
+    <row r="388" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D388" s="15"/>
+      <c r="E388" s="2"/>
+      <c r="H388" s="15"/>
+    </row>
+    <row r="389" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D389" s="15"/>
+      <c r="E389" s="2"/>
+      <c r="H389" s="15"/>
+    </row>
+    <row r="390" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D390" s="15"/>
+      <c r="E390" s="2"/>
+      <c r="H390" s="15"/>
+    </row>
+    <row r="391" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D391" s="15"/>
+      <c r="E391" s="2"/>
+      <c r="H391" s="15"/>
+    </row>
+    <row r="392" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D392" s="15"/>
+      <c r="E392" s="2"/>
+      <c r="H392" s="15"/>
+    </row>
+    <row r="393" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D393" s="15"/>
+      <c r="E393" s="2"/>
+      <c r="H393" s="15"/>
+    </row>
+    <row r="394" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D394" s="15"/>
+      <c r="E394" s="2"/>
+      <c r="H394" s="15"/>
+    </row>
+    <row r="395" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D395" s="15"/>
+      <c r="E395" s="2"/>
+      <c r="H395" s="15"/>
+    </row>
+    <row r="396" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D396" s="15"/>
+      <c r="E396" s="2"/>
+      <c r="H396" s="15"/>
+    </row>
+    <row r="397" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D397" s="15"/>
+      <c r="E397" s="2"/>
+      <c r="H397" s="15"/>
+    </row>
+    <row r="398" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D398" s="15"/>
+      <c r="E398" s="2"/>
+      <c r="H398" s="15"/>
+    </row>
+    <row r="399" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D399" s="15"/>
+      <c r="E399" s="2"/>
+      <c r="H399" s="15"/>
+    </row>
+    <row r="400" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D400" s="15"/>
+      <c r="E400" s="2"/>
+      <c r="H400" s="15"/>
+    </row>
+    <row r="401" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D401" s="15"/>
+      <c r="E401" s="2"/>
+      <c r="H401" s="15"/>
+    </row>
+    <row r="402" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D402" s="15"/>
+      <c r="E402" s="2"/>
+      <c r="H402" s="15"/>
+    </row>
+    <row r="403" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D403" s="15"/>
+      <c r="E403" s="2"/>
+      <c r="H403" s="15"/>
+    </row>
+    <row r="404" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D404" s="15"/>
+      <c r="E404" s="2"/>
+      <c r="H404" s="15"/>
+    </row>
+    <row r="405" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D405" s="15"/>
+      <c r="E405" s="2"/>
+      <c r="H405" s="15"/>
+    </row>
+    <row r="406" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D406" s="15"/>
+      <c r="E406" s="2"/>
+      <c r="H406" s="15"/>
+    </row>
+    <row r="407" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D407" s="15"/>
+      <c r="E407" s="2"/>
+      <c r="H407" s="15"/>
+    </row>
+    <row r="408" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D408" s="15"/>
+      <c r="E408" s="2"/>
+      <c r="H408" s="15"/>
+    </row>
+    <row r="409" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D409" s="15"/>
+      <c r="E409" s="2"/>
+      <c r="H409" s="15"/>
+    </row>
+    <row r="410" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D410" s="15"/>
+      <c r="E410" s="2"/>
+      <c r="H410" s="15"/>
+    </row>
+    <row r="411" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D411" s="15"/>
+      <c r="E411" s="2"/>
+      <c r="H411" s="15"/>
+    </row>
+    <row r="412" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D412" s="15"/>
+      <c r="E412" s="2"/>
+      <c r="H412" s="15"/>
+    </row>
+    <row r="413" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D413" s="15"/>
+      <c r="E413" s="2"/>
+      <c r="H413" s="15"/>
+    </row>
+    <row r="414" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D414" s="15"/>
+      <c r="E414" s="2"/>
+      <c r="H414" s="15"/>
+    </row>
+    <row r="415" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D415" s="15"/>
+      <c r="E415" s="2"/>
+      <c r="H415" s="15"/>
+    </row>
+    <row r="416" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D416" s="15"/>
+      <c r="E416" s="2"/>
+      <c r="H416" s="15"/>
+    </row>
+    <row r="417" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D417" s="15"/>
+      <c r="E417" s="2"/>
+      <c r="H417" s="15"/>
+    </row>
+    <row r="418" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D418" s="15"/>
+      <c r="E418" s="2"/>
+      <c r="H418" s="15"/>
+    </row>
+    <row r="419" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D419" s="15"/>
+      <c r="H419" s="15"/>
+    </row>
+    <row r="420" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D420" s="15"/>
+      <c r="H420" s="15"/>
+    </row>
+    <row r="421" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D421" s="15"/>
+      <c r="H421" s="15"/>
+    </row>
+    <row r="422" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D422" s="15"/>
+      <c r="H422" s="15"/>
+    </row>
+    <row r="423" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D423" s="15"/>
+      <c r="H423" s="15"/>
+    </row>
+    <row r="424" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D424" s="15"/>
+      <c r="H424" s="15"/>
+    </row>
+    <row r="425" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D425" s="15"/>
+      <c r="H425" s="15"/>
+    </row>
+    <row r="426" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D426" s="15"/>
+      <c r="H426" s="15"/>
+    </row>
+    <row r="427" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D427" s="15"/>
+      <c r="H427" s="15"/>
+    </row>
+    <row r="428" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D428" s="15"/>
+      <c r="H428" s="15"/>
+    </row>
+    <row r="429" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D429" s="15"/>
+      <c r="H429" s="15"/>
+    </row>
+    <row r="430" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D430" s="15"/>
+      <c r="H430" s="15"/>
+    </row>
+    <row r="431" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D431" s="15"/>
+      <c r="H431" s="15"/>
+    </row>
+    <row r="432" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D432" s="15"/>
+      <c r="H432" s="15"/>
+    </row>
+    <row r="433" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D433" s="15"/>
+      <c r="H433" s="15"/>
+    </row>
+    <row r="434" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D434" s="15"/>
+      <c r="H434" s="15"/>
+    </row>
+    <row r="435" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D435" s="15"/>
+      <c r="H435" s="15"/>
+    </row>
+    <row r="436" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D436" s="15"/>
+      <c r="H436" s="15"/>
+    </row>
+    <row r="437" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D437" s="15"/>
+      <c r="H437" s="15"/>
+    </row>
+    <row r="438" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D438" s="15"/>
+      <c r="H438" s="15"/>
+    </row>
+    <row r="439" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D439" s="15"/>
+      <c r="H439" s="15"/>
+    </row>
+    <row r="440" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D440" s="15"/>
+      <c r="H440" s="15"/>
+    </row>
+    <row r="441" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D441" s="15"/>
+      <c r="H441" s="15"/>
+    </row>
+    <row r="442" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D442" s="15"/>
+      <c r="H442" s="15"/>
+    </row>
+    <row r="443" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D443" s="15"/>
+      <c r="H443" s="15"/>
+    </row>
+    <row r="444" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D444" s="15"/>
+      <c r="H444" s="15"/>
+    </row>
+    <row r="445" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D445" s="15"/>
+      <c r="H445" s="15"/>
+    </row>
+    <row r="446" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D446" s="15"/>
+      <c r="H446" s="15"/>
+    </row>
+    <row r="447" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D447" s="15"/>
+      <c r="H447" s="15"/>
+    </row>
+    <row r="448" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D448" s="15"/>
+      <c r="H448" s="15"/>
+    </row>
+    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D449" s="15"/>
+    </row>
+    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D450" s="15"/>
+    </row>
+    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D451" s="15"/>
+    </row>
+    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D452" s="15"/>
+    </row>
+    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D453" s="15"/>
+    </row>
+    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D454" s="15"/>
+    </row>
+    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D455" s="15"/>
+    </row>
+    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D456" s="15"/>
+    </row>
+    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D457" s="15"/>
+    </row>
+    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D458" s="15"/>
+    </row>
+    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D459" s="15"/>
+    </row>
+    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D460" s="15"/>
+    </row>
+    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D461" s="15"/>
+    </row>
+    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D462" s="15"/>
+    </row>
+    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D463" s="15"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/OpenCart Project/OpenCart.xlsx
+++ b/OpenCart Project/OpenCart.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="164">
   <si>
     <t>Date:</t>
   </si>
@@ -332,9 +332,6 @@
     <t>I agree</t>
   </si>
   <si>
-    <t>To validate all fields on register page when user enters valid inputs.</t>
-  </si>
-  <si>
     <t>Click on firstname inputbox and enter valid first name</t>
   </si>
   <si>
@@ -419,7 +416,112 @@
     <t>After pressing it should show some errors messages like- Enter valid email and please check the checkbox. User should not be redirected to login page.</t>
   </si>
   <si>
-    <t>To validate all fields of register functionality when user enters non-relatable input for all perticular field.</t>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>Click on firstname inputbox and enter only digits.</t>
+  </si>
+  <si>
+    <t>Click on lastname inputbox and enter only digits.</t>
+  </si>
+  <si>
+    <t>Click on email inputbox and enter only digits.</t>
+  </si>
+  <si>
+    <t>Click on password inputbox and enter only digits.</t>
+  </si>
+  <si>
+    <t>Entered digits should be displayed in inputbox.</t>
+  </si>
+  <si>
+    <t>Checkbox should be checked.</t>
+  </si>
+  <si>
+    <t>After pressing continue button it should show some errors messages like- Enter valid email. User should not be redirected to login page.</t>
+  </si>
+  <si>
+    <t>asduasd</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>Click on firstname inputbox and enter only alphabets.</t>
+  </si>
+  <si>
+    <t>Click on lastname inputbox and enter only alphabets.</t>
+  </si>
+  <si>
+    <t>Click on email inputbox and enter only alphabets.</t>
+  </si>
+  <si>
+    <t>Click on password inputbox and enter only alphabets.</t>
+  </si>
+  <si>
+    <t>etyfsdyt</t>
+  </si>
+  <si>
+    <t>kjdfkggf</t>
+  </si>
+  <si>
+    <t>djhgjdsdf</t>
+  </si>
+  <si>
+    <t>yhdgadagsdjhaf</t>
+  </si>
+  <si>
+    <t>Entered alphabets should be displayed in inputbox.</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>To validate all fields of register functionality when user enters same details which he used to successfully register previously, except his email and press continue button.</t>
+  </si>
+  <si>
+    <t>To validate all fields of register functionality when user enters same details which he used to successfully register previously and press continue button.</t>
+  </si>
+  <si>
+    <t>To validate all fields of register functionality when user enters same thing in all fields and press continue button.</t>
+  </si>
+  <si>
+    <t>To validate all fields of register functionality when user enters nothing in all required and non-required fields and press continue button.</t>
+  </si>
+  <si>
+    <t>To validate all fields of register functionality when user enters valid input in only non-required fields and leaves required fields empty and press continue button.</t>
+  </si>
+  <si>
+    <t>To validate all fields of register functionality when user enters valid input in only required fields and leaves non-required fields empty and press continue button.</t>
+  </si>
+  <si>
+    <t>To validate all fields of register functionality when user enters only alphabets and press continue button.</t>
+  </si>
+  <si>
+    <t>To validate all fields of register functionality when user enters only digits in all perticular fields and press continue button.</t>
+  </si>
+  <si>
+    <t>To validate all fields of register functionality when user enters non-relatable input for all perticular field and press continue button.</t>
+  </si>
+  <si>
+    <t>To validate all fields on register page when user enters valid inputs and press continue button.</t>
   </si>
 </sst>
 </file>
@@ -2101,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,7 +2269,7 @@
         <v>86</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -2175,22 +2277,22 @@
         <v>90</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -2200,16 +2302,16 @@
         <v>2</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>95</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -2219,16 +2321,16 @@
         <v>3</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>96</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -2238,16 +2340,16 @@
         <v>4</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -2263,10 +2365,10 @@
         <v>98</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -2276,16 +2378,16 @@
         <v>6</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>99</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -2299,10 +2401,10 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -2313,75 +2415,87 @@
       <c r="G15" s="2"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="75" x14ac:dyDescent="0.25">
       <c r="C16" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G16" s="2">
         <v>1235478</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="15"/>
       <c r="E17" s="2">
         <v>2</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5895465</v>
+        <v>116</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="15"/>
       <c r="E18" s="2">
         <v>3</v>
       </c>
       <c r="F18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="H18" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="D19" s="15"/>
       <c r="E19" s="2">
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="H19" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="D20" s="15"/>
       <c r="E20" s="2">
@@ -2391,29 +2505,35 @@
         <v>92</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="15"/>
       <c r="E21" s="2">
         <v>6</v>
       </c>
       <c r="F21" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="H21" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="60" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="15"/>
       <c r="E22" s="2">
@@ -2424,10 +2544,11 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="15"/>
       <c r="E23" s="2"/>
@@ -2435,63 +2556,139 @@
       <c r="G23" s="2"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C24" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="2">
+        <v>546544</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="2">
+        <v>534546</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="2">
+        <v>68768687686</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>4</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="2">
+        <v>643479</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <v>6</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="60" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="15"/>
+      <c r="E30" s="2">
+        <v>7</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="15"/>
       <c r="E31" s="2"/>
@@ -2499,63 +2696,139 @@
       <c r="G31" s="2"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="C32" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E35" s="2">
+        <v>4</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>6</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" ht="60" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="15"/>
+      <c r="E38" s="2">
+        <v>7</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="15"/>
       <c r="E39" s="2"/>
@@ -2563,63 +2836,81 @@
       <c r="G39" s="2"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="2"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="2"/>
+    <row r="40" spans="3:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="C40" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
       <c r="F40" s="15"/>
       <c r="G40" s="2"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
       <c r="F41" s="15"/>
       <c r="G41" s="2"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
       <c r="F42" s="15"/>
       <c r="G42" s="2"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2">
+        <v>4</v>
+      </c>
       <c r="F43" s="15"/>
       <c r="G43" s="2"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="D44" s="15"/>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
       <c r="F44" s="15"/>
       <c r="G44" s="2"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="15"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2">
+        <v>6</v>
+      </c>
       <c r="F45" s="15"/>
       <c r="G45" s="2"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="15"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2">
+        <v>7</v>
+      </c>
       <c r="F46" s="15"/>
       <c r="G46" s="2"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="D47" s="15"/>
       <c r="E47" s="2"/>
@@ -2627,10 +2918,16 @@
       <c r="G47" s="2"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="2"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="2"/>
+    <row r="48" spans="3:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="C48" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
       <c r="F48" s="15"/>
       <c r="G48" s="2"/>
       <c r="H48" s="15"/>
@@ -2638,7 +2935,9 @@
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="D49" s="15"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2">
+        <v>2</v>
+      </c>
       <c r="F49" s="15"/>
       <c r="G49" s="2"/>
       <c r="H49" s="15"/>
@@ -2646,7 +2945,9 @@
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="D50" s="15"/>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2">
+        <v>3</v>
+      </c>
       <c r="F50" s="15"/>
       <c r="G50" s="2"/>
       <c r="H50" s="15"/>
@@ -2654,7 +2955,9 @@
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
       <c r="D51" s="15"/>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2">
+        <v>4</v>
+      </c>
       <c r="F51" s="15"/>
       <c r="G51" s="2"/>
       <c r="H51" s="15"/>
@@ -2662,7 +2965,9 @@
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
       <c r="D52" s="15"/>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2">
+        <v>5</v>
+      </c>
       <c r="F52" s="15"/>
       <c r="G52" s="2"/>
       <c r="H52" s="15"/>
@@ -2670,7 +2975,9 @@
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="15"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2">
+        <v>6</v>
+      </c>
       <c r="F53" s="15"/>
       <c r="G53" s="2"/>
       <c r="H53" s="15"/>
@@ -2678,7 +2985,9 @@
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="15"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2">
+        <v>7</v>
+      </c>
       <c r="F54" s="15"/>
       <c r="G54" s="2"/>
       <c r="H54" s="15"/>
@@ -2691,10 +3000,16 @@
       <c r="G55" s="2"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="2"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="2"/>
+    <row r="56" spans="3:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="C56" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
       <c r="F56" s="15"/>
       <c r="G56" s="2"/>
       <c r="H56" s="15"/>
@@ -2702,7 +3017,9 @@
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="D57" s="15"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2">
+        <v>2</v>
+      </c>
       <c r="F57" s="15"/>
       <c r="G57" s="2"/>
       <c r="H57" s="15"/>
@@ -2710,7 +3027,9 @@
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="D58" s="15"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2">
+        <v>3</v>
+      </c>
       <c r="F58" s="15"/>
       <c r="G58" s="2"/>
       <c r="H58" s="15"/>
@@ -2718,7 +3037,9 @@
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="D59" s="15"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="2">
+        <v>4</v>
+      </c>
       <c r="F59" s="15"/>
       <c r="G59" s="2"/>
       <c r="H59" s="15"/>
@@ -2726,7 +3047,9 @@
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="D60" s="15"/>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2">
+        <v>5</v>
+      </c>
       <c r="F60" s="15"/>
       <c r="G60" s="2"/>
       <c r="H60" s="15"/>
@@ -2734,7 +3057,9 @@
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
       <c r="D61" s="15"/>
-      <c r="E61" s="2"/>
+      <c r="E61" s="2">
+        <v>6</v>
+      </c>
       <c r="F61" s="15"/>
       <c r="G61" s="2"/>
       <c r="H61" s="15"/>
@@ -2742,7 +3067,9 @@
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="15"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="2">
+        <v>7</v>
+      </c>
       <c r="F62" s="15"/>
       <c r="G62" s="2"/>
       <c r="H62" s="15"/>
@@ -2755,10 +3082,16 @@
       <c r="G63" s="2"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="2"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="2"/>
+    <row r="64" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C64" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
       <c r="F64" s="15"/>
       <c r="G64" s="2"/>
       <c r="H64" s="15"/>
@@ -2766,7 +3099,9 @@
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="15"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="2">
+        <v>2</v>
+      </c>
       <c r="F65" s="15"/>
       <c r="G65" s="2"/>
       <c r="H65" s="15"/>
@@ -2774,7 +3109,9 @@
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="15"/>
-      <c r="E66" s="2"/>
+      <c r="E66" s="2">
+        <v>3</v>
+      </c>
       <c r="F66" s="15"/>
       <c r="G66" s="2"/>
       <c r="H66" s="15"/>
@@ -2782,7 +3119,9 @@
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="15"/>
-      <c r="E67" s="2"/>
+      <c r="E67" s="2">
+        <v>4</v>
+      </c>
       <c r="F67" s="15"/>
       <c r="G67" s="2"/>
       <c r="H67" s="15"/>
@@ -2790,7 +3129,9 @@
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="D68" s="15"/>
-      <c r="E68" s="2"/>
+      <c r="E68" s="2">
+        <v>5</v>
+      </c>
       <c r="F68" s="15"/>
       <c r="G68" s="2"/>
       <c r="H68" s="15"/>
@@ -2798,7 +3139,9 @@
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="15"/>
-      <c r="E69" s="2"/>
+      <c r="E69" s="2">
+        <v>6</v>
+      </c>
       <c r="F69" s="15"/>
       <c r="G69" s="2"/>
       <c r="H69" s="15"/>
@@ -2806,7 +3149,9 @@
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
       <c r="D70" s="15"/>
-      <c r="E70" s="2"/>
+      <c r="E70" s="2">
+        <v>7</v>
+      </c>
       <c r="F70" s="15"/>
       <c r="G70" s="2"/>
       <c r="H70" s="15"/>
@@ -2819,10 +3164,16 @@
       <c r="G71" s="2"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C72" s="2"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="2"/>
+    <row r="72" spans="3:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="C72" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
       <c r="F72" s="15"/>
       <c r="G72" s="2"/>
       <c r="H72" s="15"/>
@@ -2830,7 +3181,9 @@
     <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="15"/>
-      <c r="E73" s="2"/>
+      <c r="E73" s="2">
+        <v>2</v>
+      </c>
       <c r="F73" s="15"/>
       <c r="G73" s="2"/>
       <c r="H73" s="15"/>
@@ -2838,7 +3191,9 @@
     <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="15"/>
-      <c r="E74" s="2"/>
+      <c r="E74" s="2">
+        <v>3</v>
+      </c>
       <c r="F74" s="15"/>
       <c r="G74" s="2"/>
       <c r="H74" s="15"/>
@@ -2846,7 +3201,9 @@
     <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="15"/>
-      <c r="E75" s="2"/>
+      <c r="E75" s="2">
+        <v>4</v>
+      </c>
       <c r="F75" s="15"/>
       <c r="G75" s="2"/>
       <c r="H75" s="15"/>
@@ -2854,7 +3211,9 @@
     <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="15"/>
-      <c r="E76" s="2"/>
+      <c r="E76" s="2">
+        <v>5</v>
+      </c>
       <c r="F76" s="15"/>
       <c r="G76" s="2"/>
       <c r="H76" s="15"/>
@@ -2862,7 +3221,9 @@
     <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="15"/>
-      <c r="E77" s="2"/>
+      <c r="E77" s="2">
+        <v>6</v>
+      </c>
       <c r="F77" s="15"/>
       <c r="G77" s="2"/>
       <c r="H77" s="15"/>
@@ -2870,7 +3231,9 @@
     <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="15"/>
-      <c r="E78" s="2"/>
+      <c r="E78" s="2">
+        <v>7</v>
+      </c>
       <c r="F78" s="15"/>
       <c r="G78" s="2"/>
       <c r="H78" s="15"/>
@@ -2883,10 +3246,16 @@
       <c r="G79" s="2"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C80" s="2"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="2"/>
+    <row r="80" spans="3:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="C80" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
       <c r="F80" s="15"/>
       <c r="G80" s="2"/>
       <c r="H80" s="15"/>
@@ -2894,7 +3263,9 @@
     <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="D81" s="15"/>
-      <c r="E81" s="2"/>
+      <c r="E81" s="2">
+        <v>2</v>
+      </c>
       <c r="F81" s="15"/>
       <c r="G81" s="2"/>
       <c r="H81" s="15"/>
@@ -2902,7 +3273,9 @@
     <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
       <c r="D82" s="15"/>
-      <c r="E82" s="2"/>
+      <c r="E82" s="2">
+        <v>3</v>
+      </c>
       <c r="F82" s="15"/>
       <c r="G82" s="2"/>
       <c r="H82" s="15"/>
@@ -2910,7 +3283,9 @@
     <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
       <c r="D83" s="15"/>
-      <c r="E83" s="2"/>
+      <c r="E83" s="2">
+        <v>4</v>
+      </c>
       <c r="F83" s="15"/>
       <c r="G83" s="2"/>
       <c r="H83" s="15"/>
@@ -2918,7 +3293,9 @@
     <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
       <c r="D84" s="15"/>
-      <c r="E84" s="2"/>
+      <c r="E84" s="2">
+        <v>5</v>
+      </c>
       <c r="F84" s="15"/>
       <c r="G84" s="2"/>
       <c r="H84" s="15"/>
@@ -2926,7 +3303,9 @@
     <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
       <c r="D85" s="15"/>
-      <c r="E85" s="2"/>
+      <c r="E85" s="2">
+        <v>6</v>
+      </c>
       <c r="F85" s="15"/>
       <c r="G85" s="2"/>
       <c r="H85" s="15"/>
@@ -2934,7 +3313,9 @@
     <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="D86" s="15"/>
-      <c r="E86" s="2"/>
+      <c r="E86" s="2">
+        <v>7</v>
+      </c>
       <c r="F86" s="15"/>
       <c r="G86" s="2"/>
       <c r="H86" s="15"/>

--- a/OpenCart Project/OpenCart.xlsx
+++ b/OpenCart Project/OpenCart.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="196">
   <si>
     <t>Date:</t>
   </si>
@@ -365,9 +365,6 @@
     <t>Checkbox should get checked.</t>
   </si>
   <si>
-    <t>After pressing continue button user should be redirected to login page successfully.</t>
-  </si>
-  <si>
     <t>Type of Testing</t>
   </si>
   <si>
@@ -522,6 +519,105 @@
   </si>
   <si>
     <t>To validate all fields on register page when user enters valid inputs and press continue button.</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>To validate that lastname inputbox only acepts alphabets and no any other character.</t>
+  </si>
+  <si>
+    <t>To validate that firstname inputbox only acepts alphabets and no any other character.</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>To verify that email inputbox shows error when user does not enters characters like "@" &amp; "." which are compulsory.</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>To verify that email inputbox validate email successfully after entering characters like "@" &amp; "." which are compulsory.</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>To verify that when user enters password in inputbox then it shows password strength correctly whether it is weak, intermediate or strong.</t>
+  </si>
+  <si>
+    <t>To verify that password inputbox accepts any character without an issue.</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>To verify that only one radio button get selected each single time i.e. either Yes or No.</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>To verify that "I have read and agree to the Privacy Policy" checkbox is functional.</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>To verify that Continue button is functional.</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>To verify that when user hit back button it redirects to either homepage or login page.</t>
+  </si>
+  <si>
+    <t>Click on firstname inputbox and enter valid input which is required.</t>
+  </si>
+  <si>
+    <t>Click on lastname inputbox and enter valid input which is required.</t>
+  </si>
+  <si>
+    <t>Click on email inputbox and enter valid input which is required.</t>
+  </si>
+  <si>
+    <t>Click on password inputbox and enter valid input which is required.</t>
+  </si>
+  <si>
+    <t>Keep it default as it is not required.</t>
+  </si>
+  <si>
+    <t>Click on checkbox to agree to the privacy policies as it is required.</t>
+  </si>
+  <si>
+    <t>It will be selected by default.</t>
+  </si>
+  <si>
+    <t>After pressing continue button user should get "Registered Successfully" message and should be redirected to login page.</t>
+  </si>
+  <si>
+    <t>Keep it as it is.</t>
+  </si>
+  <si>
+    <t>Do not check the check box.</t>
+  </si>
+  <si>
+    <t>Select either Yes or No.</t>
+  </si>
+  <si>
+    <t>Checkbox should get unchecked.</t>
+  </si>
+  <si>
+    <t>After pressing continue button user should get "Enter required field" error message and should not be redirected to login page.</t>
   </si>
 </sst>
 </file>
@@ -2201,10 +2297,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M463"/>
+  <dimension ref="B2:M471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,7 +2365,7 @@
         <v>86</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -2277,7 +2373,7 @@
         <v>90</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -2292,7 +2388,7 @@
         <v>105</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -2311,7 +2407,7 @@
         <v>106</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -2330,7 +2426,7 @@
         <v>107</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -2349,7 +2445,7 @@
         <v>108</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -2368,7 +2464,7 @@
         <v>109</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="30" x14ac:dyDescent="0.25">
@@ -2387,10 +2483,10 @@
         <v>110</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="15"/>
       <c r="E14" s="2">
@@ -2401,10 +2497,10 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="15" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -2417,25 +2513,25 @@
     </row>
     <row r="16" spans="2:13" ht="75" x14ac:dyDescent="0.25">
       <c r="C16" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G16" s="2">
         <v>1235478</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -2445,16 +2541,16 @@
         <v>2</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -2464,16 +2560,16 @@
         <v>3</v>
       </c>
       <c r="F18" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="H18" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -2483,16 +2579,16 @@
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="H19" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -2505,13 +2601,13 @@
         <v>92</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -2521,16 +2617,16 @@
         <v>6</v>
       </c>
       <c r="F21" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="H21" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="60" x14ac:dyDescent="0.25">
@@ -2544,7 +2640,7 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M22" s="2"/>
     </row>
@@ -2558,25 +2654,25 @@
     </row>
     <row r="24" spans="3:13" ht="60" x14ac:dyDescent="0.25">
       <c r="C24" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G24" s="2">
         <v>546544</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -2586,16 +2682,16 @@
         <v>2</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25" s="2">
         <v>534546</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -2605,16 +2701,16 @@
         <v>3</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G26" s="2">
         <v>68768687686</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -2624,16 +2720,16 @@
         <v>4</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G27" s="2">
         <v>643479</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -2652,7 +2748,7 @@
         <v>109</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -2668,10 +2764,10 @@
         <v>99</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="3:13" ht="60" x14ac:dyDescent="0.25">
@@ -2685,7 +2781,7 @@
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.25">
@@ -2698,25 +2794,25 @@
     </row>
     <row r="32" spans="3:13" ht="60" x14ac:dyDescent="0.25">
       <c r="C32" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -2726,16 +2822,16 @@
         <v>2</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -2745,16 +2841,16 @@
         <v>3</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="H34" s="15" t="s">
-        <v>147</v>
-      </c>
       <c r="M34" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -2764,16 +2860,16 @@
         <v>4</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -2792,7 +2888,7 @@
         <v>109</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -2808,10 +2904,10 @@
         <v>99</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="3:13" ht="60" x14ac:dyDescent="0.25">
@@ -2825,7 +2921,7 @@
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.25">
@@ -2838,47 +2934,71 @@
     </row>
     <row r="40" spans="3:13" ht="75" x14ac:dyDescent="0.25">
       <c r="C40" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F40" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="15"/>
       <c r="E41" s="2">
         <v>2</v>
       </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F41" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="15"/>
       <c r="E42" s="2">
         <v>3</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F42" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="15"/>
       <c r="E43" s="2">
         <v>4</v>
       </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="15"/>
+      <c r="F43" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
@@ -2886,29 +3006,45 @@
       <c r="E44" s="2">
         <v>5</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F44" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="15"/>
       <c r="E45" s="2">
         <v>6</v>
       </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F45" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" ht="45" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="15"/>
       <c r="E46" s="2">
         <v>7</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="15"/>
+      <c r="H46" s="15" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
@@ -2920,27 +3056,39 @@
     </row>
     <row r="48" spans="3:13" ht="75" x14ac:dyDescent="0.25">
       <c r="C48" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
       </c>
-      <c r="F48" s="15"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F48" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="D49" s="15"/>
       <c r="E49" s="2">
         <v>2</v>
       </c>
-      <c r="F49" s="15"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="15"/>
+      <c r="F49" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
@@ -2948,19 +3096,31 @@
       <c r="E50" s="2">
         <v>3</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="15"/>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
       <c r="D51" s="15"/>
       <c r="E51" s="2">
         <v>4</v>
       </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="15"/>
+      <c r="F51" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
@@ -2968,9 +3128,15 @@
       <c r="E52" s="2">
         <v>5</v>
       </c>
-      <c r="F52" s="15"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="15"/>
+      <c r="F52" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
@@ -2978,19 +3144,29 @@
       <c r="E53" s="2">
         <v>6</v>
       </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="15"/>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F53" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="15"/>
       <c r="E54" s="2">
         <v>7</v>
       </c>
-      <c r="F54" s="15"/>
+      <c r="F54" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="15"/>
+      <c r="H54" s="15" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
@@ -3002,10 +3178,10 @@
     </row>
     <row r="56" spans="3:8" ht="75" x14ac:dyDescent="0.25">
       <c r="C56" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
@@ -3084,10 +3260,10 @@
     </row>
     <row r="64" spans="3:8" ht="60" x14ac:dyDescent="0.25">
       <c r="C64" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E64" s="2">
         <v>1</v>
@@ -3166,10 +3342,10 @@
     </row>
     <row r="72" spans="3:8" ht="75" x14ac:dyDescent="0.25">
       <c r="C72" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
@@ -3248,10 +3424,10 @@
     </row>
     <row r="80" spans="3:8" ht="90" x14ac:dyDescent="0.25">
       <c r="C80" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>154</v>
       </c>
       <c r="E80" s="2">
         <v>1</v>
@@ -3328,10 +3504,16 @@
       <c r="G87" s="2"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C88" s="2"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="2"/>
+    <row r="88" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
       <c r="F88" s="15"/>
       <c r="G88" s="2"/>
       <c r="H88" s="15"/>
@@ -3339,7 +3521,9 @@
     <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
       <c r="D89" s="15"/>
-      <c r="E89" s="2"/>
+      <c r="E89" s="2">
+        <v>2</v>
+      </c>
       <c r="F89" s="15"/>
       <c r="G89" s="2"/>
       <c r="H89" s="15"/>
@@ -3347,7 +3531,9 @@
     <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
       <c r="D90" s="15"/>
-      <c r="E90" s="2"/>
+      <c r="E90" s="2">
+        <v>3</v>
+      </c>
       <c r="F90" s="15"/>
       <c r="G90" s="2"/>
       <c r="H90" s="15"/>
@@ -3355,7 +3541,9 @@
     <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
       <c r="D91" s="15"/>
-      <c r="E91" s="2"/>
+      <c r="E91" s="2">
+        <v>4</v>
+      </c>
       <c r="F91" s="15"/>
       <c r="G91" s="2"/>
       <c r="H91" s="15"/>
@@ -3363,7 +3551,9 @@
     <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
       <c r="D92" s="15"/>
-      <c r="E92" s="2"/>
+      <c r="E92" s="2">
+        <v>5</v>
+      </c>
       <c r="F92" s="15"/>
       <c r="G92" s="2"/>
       <c r="H92" s="15"/>
@@ -3371,7 +3561,9 @@
     <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="D93" s="15"/>
-      <c r="E93" s="2"/>
+      <c r="E93" s="2">
+        <v>6</v>
+      </c>
       <c r="F93" s="15"/>
       <c r="G93" s="2"/>
       <c r="H93" s="15"/>
@@ -3379,7 +3571,9 @@
     <row r="94" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
       <c r="D94" s="15"/>
-      <c r="E94" s="2"/>
+      <c r="E94" s="2">
+        <v>7</v>
+      </c>
       <c r="F94" s="15"/>
       <c r="G94" s="2"/>
       <c r="H94" s="15"/>
@@ -3392,10 +3586,16 @@
       <c r="G95" s="2"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C96" s="2"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="2"/>
+    <row r="96" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C96" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
       <c r="F96" s="15"/>
       <c r="G96" s="2"/>
       <c r="H96" s="15"/>
@@ -3403,7 +3603,9 @@
     <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
       <c r="D97" s="15"/>
-      <c r="E97" s="2"/>
+      <c r="E97" s="2">
+        <v>2</v>
+      </c>
       <c r="F97" s="15"/>
       <c r="G97" s="2"/>
       <c r="H97" s="15"/>
@@ -3411,7 +3613,9 @@
     <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
       <c r="D98" s="15"/>
-      <c r="E98" s="2"/>
+      <c r="E98" s="2">
+        <v>3</v>
+      </c>
       <c r="F98" s="15"/>
       <c r="G98" s="2"/>
       <c r="H98" s="15"/>
@@ -3419,7 +3623,9 @@
     <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
       <c r="D99" s="15"/>
-      <c r="E99" s="2"/>
+      <c r="E99" s="2">
+        <v>4</v>
+      </c>
       <c r="F99" s="15"/>
       <c r="G99" s="2"/>
       <c r="H99" s="15"/>
@@ -3427,7 +3633,9 @@
     <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
       <c r="D100" s="15"/>
-      <c r="E100" s="2"/>
+      <c r="E100" s="2">
+        <v>5</v>
+      </c>
       <c r="F100" s="15"/>
       <c r="G100" s="2"/>
       <c r="H100" s="15"/>
@@ -3435,7 +3643,9 @@
     <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="D101" s="15"/>
-      <c r="E101" s="2"/>
+      <c r="E101" s="2">
+        <v>6</v>
+      </c>
       <c r="F101" s="15"/>
       <c r="G101" s="2"/>
       <c r="H101" s="15"/>
@@ -3443,7 +3653,9 @@
     <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="15"/>
-      <c r="E102" s="2"/>
+      <c r="E102" s="2">
+        <v>7</v>
+      </c>
       <c r="F102" s="15"/>
       <c r="G102" s="2"/>
       <c r="H102" s="15"/>
@@ -3456,10 +3668,16 @@
       <c r="G103" s="2"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C104" s="2"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="2"/>
+    <row r="104" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C104" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
       <c r="F104" s="15"/>
       <c r="G104" s="2"/>
       <c r="H104" s="15"/>
@@ -3467,7 +3685,9 @@
     <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="15"/>
-      <c r="E105" s="2"/>
+      <c r="E105" s="2">
+        <v>2</v>
+      </c>
       <c r="F105" s="15"/>
       <c r="G105" s="2"/>
       <c r="H105" s="15"/>
@@ -3475,7 +3695,9 @@
     <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="15"/>
-      <c r="E106" s="2"/>
+      <c r="E106" s="2">
+        <v>3</v>
+      </c>
       <c r="F106" s="15"/>
       <c r="G106" s="2"/>
       <c r="H106" s="15"/>
@@ -3483,7 +3705,9 @@
     <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="15"/>
-      <c r="E107" s="2"/>
+      <c r="E107" s="2">
+        <v>4</v>
+      </c>
       <c r="F107" s="15"/>
       <c r="G107" s="2"/>
       <c r="H107" s="15"/>
@@ -3491,7 +3715,9 @@
     <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="15"/>
-      <c r="E108" s="2"/>
+      <c r="E108" s="2">
+        <v>5</v>
+      </c>
       <c r="F108" s="15"/>
       <c r="G108" s="2"/>
       <c r="H108" s="15"/>
@@ -3499,7 +3725,9 @@
     <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="15"/>
-      <c r="E109" s="2"/>
+      <c r="E109" s="2">
+        <v>6</v>
+      </c>
       <c r="F109" s="15"/>
       <c r="G109" s="2"/>
       <c r="H109" s="15"/>
@@ -3507,7 +3735,9 @@
     <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="15"/>
-      <c r="E110" s="2"/>
+      <c r="E110" s="2">
+        <v>7</v>
+      </c>
       <c r="F110" s="15"/>
       <c r="G110" s="2"/>
       <c r="H110" s="15"/>
@@ -3520,10 +3750,16 @@
       <c r="G111" s="2"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C112" s="2"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="2"/>
+    <row r="112" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C112" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
       <c r="F112" s="15"/>
       <c r="G112" s="2"/>
       <c r="H112" s="15"/>
@@ -3531,7 +3767,9 @@
     <row r="113" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
       <c r="D113" s="15"/>
-      <c r="E113" s="2"/>
+      <c r="E113" s="2">
+        <v>2</v>
+      </c>
       <c r="F113" s="15"/>
       <c r="G113" s="2"/>
       <c r="H113" s="15"/>
@@ -3539,7 +3777,9 @@
     <row r="114" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
       <c r="D114" s="15"/>
-      <c r="E114" s="2"/>
+      <c r="E114" s="2">
+        <v>3</v>
+      </c>
       <c r="F114" s="15"/>
       <c r="G114" s="2"/>
       <c r="H114" s="15"/>
@@ -3547,7 +3787,9 @@
     <row r="115" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="D115" s="15"/>
-      <c r="E115" s="2"/>
+      <c r="E115" s="2">
+        <v>4</v>
+      </c>
       <c r="F115" s="15"/>
       <c r="G115" s="2"/>
       <c r="H115" s="15"/>
@@ -3555,7 +3797,9 @@
     <row r="116" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
       <c r="D116" s="15"/>
-      <c r="E116" s="2"/>
+      <c r="E116" s="2">
+        <v>5</v>
+      </c>
       <c r="F116" s="15"/>
       <c r="G116" s="2"/>
       <c r="H116" s="15"/>
@@ -3563,7 +3807,9 @@
     <row r="117" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="D117" s="15"/>
-      <c r="E117" s="2"/>
+      <c r="E117" s="2">
+        <v>6</v>
+      </c>
       <c r="F117" s="15"/>
       <c r="G117" s="2"/>
       <c r="H117" s="15"/>
@@ -3571,7 +3817,9 @@
     <row r="118" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
       <c r="D118" s="15"/>
-      <c r="E118" s="2"/>
+      <c r="E118" s="2">
+        <v>7</v>
+      </c>
       <c r="F118" s="15"/>
       <c r="G118" s="2"/>
       <c r="H118" s="15"/>
@@ -3584,10 +3832,16 @@
       <c r="G119" s="2"/>
       <c r="H119" s="15"/>
     </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C120" s="2"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="2"/>
+    <row r="120" spans="3:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="C120" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
       <c r="F120" s="15"/>
       <c r="G120" s="2"/>
       <c r="H120" s="15"/>
@@ -3595,7 +3849,9 @@
     <row r="121" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="D121" s="15"/>
-      <c r="E121" s="2"/>
+      <c r="E121" s="2">
+        <v>2</v>
+      </c>
       <c r="F121" s="15"/>
       <c r="G121" s="2"/>
       <c r="H121" s="15"/>
@@ -3603,7 +3859,9 @@
     <row r="122" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
       <c r="D122" s="15"/>
-      <c r="E122" s="2"/>
+      <c r="E122" s="2">
+        <v>3</v>
+      </c>
       <c r="F122" s="15"/>
       <c r="G122" s="2"/>
       <c r="H122" s="15"/>
@@ -3611,7 +3869,9 @@
     <row r="123" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="D123" s="15"/>
-      <c r="E123" s="2"/>
+      <c r="E123" s="2">
+        <v>4</v>
+      </c>
       <c r="F123" s="15"/>
       <c r="G123" s="2"/>
       <c r="H123" s="15"/>
@@ -3619,7 +3879,9 @@
     <row r="124" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
       <c r="D124" s="15"/>
-      <c r="E124" s="2"/>
+      <c r="E124" s="2">
+        <v>5</v>
+      </c>
       <c r="F124" s="15"/>
       <c r="G124" s="2"/>
       <c r="H124" s="15"/>
@@ -3627,7 +3889,9 @@
     <row r="125" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="D125" s="15"/>
-      <c r="E125" s="2"/>
+      <c r="E125" s="2">
+        <v>6</v>
+      </c>
       <c r="F125" s="15"/>
       <c r="G125" s="2"/>
       <c r="H125" s="15"/>
@@ -3635,7 +3899,9 @@
     <row r="126" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="D126" s="15"/>
-      <c r="E126" s="2"/>
+      <c r="E126" s="2">
+        <v>7</v>
+      </c>
       <c r="F126" s="15"/>
       <c r="G126" s="2"/>
       <c r="H126" s="15"/>
@@ -3648,10 +3914,16 @@
       <c r="G127" s="2"/>
       <c r="H127" s="15"/>
     </row>
-    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C128" s="2"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="2"/>
+    <row r="128" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C128" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E128" s="2">
+        <v>1</v>
+      </c>
       <c r="F128" s="15"/>
       <c r="G128" s="2"/>
       <c r="H128" s="15"/>
@@ -3659,7 +3931,9 @@
     <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
       <c r="D129" s="15"/>
-      <c r="E129" s="2"/>
+      <c r="E129" s="2">
+        <v>2</v>
+      </c>
       <c r="F129" s="15"/>
       <c r="G129" s="2"/>
       <c r="H129" s="15"/>
@@ -3667,7 +3941,9 @@
     <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
       <c r="D130" s="15"/>
-      <c r="E130" s="2"/>
+      <c r="E130" s="2">
+        <v>3</v>
+      </c>
       <c r="F130" s="15"/>
       <c r="G130" s="2"/>
       <c r="H130" s="15"/>
@@ -3675,7 +3951,9 @@
     <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
       <c r="D131" s="15"/>
-      <c r="E131" s="2"/>
+      <c r="E131" s="2">
+        <v>4</v>
+      </c>
       <c r="F131" s="15"/>
       <c r="G131" s="2"/>
       <c r="H131" s="15"/>
@@ -3683,7 +3961,9 @@
     <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
       <c r="D132" s="15"/>
-      <c r="E132" s="2"/>
+      <c r="E132" s="2">
+        <v>5</v>
+      </c>
       <c r="F132" s="15"/>
       <c r="G132" s="2"/>
       <c r="H132" s="15"/>
@@ -3691,7 +3971,9 @@
     <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
       <c r="D133" s="15"/>
-      <c r="E133" s="2"/>
+      <c r="E133" s="2">
+        <v>6</v>
+      </c>
       <c r="F133" s="15"/>
       <c r="G133" s="2"/>
       <c r="H133" s="15"/>
@@ -3699,7 +3981,9 @@
     <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
       <c r="D134" s="15"/>
-      <c r="E134" s="2"/>
+      <c r="E134" s="2">
+        <v>7</v>
+      </c>
       <c r="F134" s="15"/>
       <c r="G134" s="2"/>
       <c r="H134" s="15"/>
@@ -3712,10 +3996,16 @@
       <c r="G135" s="2"/>
       <c r="H135" s="15"/>
     </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C136" s="2"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="2"/>
+    <row r="136" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C136" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
       <c r="F136" s="15"/>
       <c r="G136" s="2"/>
       <c r="H136" s="15"/>
@@ -3723,7 +4013,9 @@
     <row r="137" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="D137" s="15"/>
-      <c r="E137" s="2"/>
+      <c r="E137" s="2">
+        <v>2</v>
+      </c>
       <c r="F137" s="15"/>
       <c r="G137" s="2"/>
       <c r="H137" s="15"/>
@@ -3731,7 +4023,9 @@
     <row r="138" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
       <c r="D138" s="15"/>
-      <c r="E138" s="2"/>
+      <c r="E138" s="2">
+        <v>3</v>
+      </c>
       <c r="F138" s="15"/>
       <c r="G138" s="2"/>
       <c r="H138" s="15"/>
@@ -3739,7 +4033,9 @@
     <row r="139" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="D139" s="15"/>
-      <c r="E139" s="2"/>
+      <c r="E139" s="2">
+        <v>4</v>
+      </c>
       <c r="F139" s="15"/>
       <c r="G139" s="2"/>
       <c r="H139" s="15"/>
@@ -3747,7 +4043,9 @@
     <row r="140" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
       <c r="D140" s="15"/>
-      <c r="E140" s="2"/>
+      <c r="E140" s="2">
+        <v>5</v>
+      </c>
       <c r="F140" s="15"/>
       <c r="G140" s="2"/>
       <c r="H140" s="15"/>
@@ -3755,7 +4053,9 @@
     <row r="141" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="D141" s="15"/>
-      <c r="E141" s="2"/>
+      <c r="E141" s="2">
+        <v>6</v>
+      </c>
       <c r="F141" s="15"/>
       <c r="G141" s="2"/>
       <c r="H141" s="15"/>
@@ -3763,7 +4063,9 @@
     <row r="142" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
       <c r="D142" s="15"/>
-      <c r="E142" s="2"/>
+      <c r="E142" s="2">
+        <v>7</v>
+      </c>
       <c r="F142" s="15"/>
       <c r="G142" s="2"/>
       <c r="H142" s="15"/>
@@ -3776,10 +4078,16 @@
       <c r="G143" s="2"/>
       <c r="H143" s="15"/>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C144" s="2"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="2"/>
+    <row r="144" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C144" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
       <c r="F144" s="15"/>
       <c r="G144" s="2"/>
       <c r="H144" s="15"/>
@@ -3787,7 +4095,9 @@
     <row r="145" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
       <c r="D145" s="15"/>
-      <c r="E145" s="2"/>
+      <c r="E145" s="2">
+        <v>2</v>
+      </c>
       <c r="F145" s="15"/>
       <c r="G145" s="2"/>
       <c r="H145" s="15"/>
@@ -3795,7 +4105,9 @@
     <row r="146" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
       <c r="D146" s="15"/>
-      <c r="E146" s="2"/>
+      <c r="E146" s="2">
+        <v>3</v>
+      </c>
       <c r="F146" s="15"/>
       <c r="G146" s="2"/>
       <c r="H146" s="15"/>
@@ -3803,7 +4115,9 @@
     <row r="147" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
       <c r="D147" s="15"/>
-      <c r="E147" s="2"/>
+      <c r="E147" s="2">
+        <v>4</v>
+      </c>
       <c r="F147" s="15"/>
       <c r="G147" s="2"/>
       <c r="H147" s="15"/>
@@ -3811,7 +4125,9 @@
     <row r="148" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
       <c r="D148" s="15"/>
-      <c r="E148" s="2"/>
+      <c r="E148" s="2">
+        <v>5</v>
+      </c>
       <c r="F148" s="15"/>
       <c r="G148" s="2"/>
       <c r="H148" s="15"/>
@@ -3819,7 +4135,9 @@
     <row r="149" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
       <c r="D149" s="15"/>
-      <c r="E149" s="2"/>
+      <c r="E149" s="2">
+        <v>6</v>
+      </c>
       <c r="F149" s="15"/>
       <c r="G149" s="2"/>
       <c r="H149" s="15"/>
@@ -3827,7 +4145,9 @@
     <row r="150" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
       <c r="D150" s="15"/>
-      <c r="E150" s="2"/>
+      <c r="E150" s="2">
+        <v>7</v>
+      </c>
       <c r="F150" s="15"/>
       <c r="G150" s="2"/>
       <c r="H150" s="15"/>
@@ -3840,10 +4160,16 @@
       <c r="G151" s="2"/>
       <c r="H151" s="15"/>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C152" s="2"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="2"/>
+    <row r="152" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C152" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1</v>
+      </c>
       <c r="F152" s="15"/>
       <c r="G152" s="2"/>
       <c r="H152" s="15"/>
@@ -3851,7 +4177,9 @@
     <row r="153" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
       <c r="D153" s="15"/>
-      <c r="E153" s="2"/>
+      <c r="E153" s="2">
+        <v>2</v>
+      </c>
       <c r="F153" s="15"/>
       <c r="G153" s="2"/>
       <c r="H153" s="15"/>
@@ -3859,7 +4187,9 @@
     <row r="154" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C154" s="2"/>
       <c r="D154" s="15"/>
-      <c r="E154" s="2"/>
+      <c r="E154" s="2">
+        <v>3</v>
+      </c>
       <c r="F154" s="15"/>
       <c r="G154" s="2"/>
       <c r="H154" s="15"/>
@@ -3867,7 +4197,9 @@
     <row r="155" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
       <c r="D155" s="15"/>
-      <c r="E155" s="2"/>
+      <c r="E155" s="2">
+        <v>4</v>
+      </c>
       <c r="F155" s="15"/>
       <c r="G155" s="2"/>
       <c r="H155" s="15"/>
@@ -3875,7 +4207,9 @@
     <row r="156" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C156" s="2"/>
       <c r="D156" s="15"/>
-      <c r="E156" s="2"/>
+      <c r="E156" s="2">
+        <v>5</v>
+      </c>
       <c r="F156" s="15"/>
       <c r="G156" s="2"/>
       <c r="H156" s="15"/>
@@ -3883,7 +4217,9 @@
     <row r="157" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
       <c r="D157" s="15"/>
-      <c r="E157" s="2"/>
+      <c r="E157" s="2">
+        <v>6</v>
+      </c>
       <c r="F157" s="15"/>
       <c r="G157" s="2"/>
       <c r="H157" s="15"/>
@@ -3891,7 +4227,9 @@
     <row r="158" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C158" s="2"/>
       <c r="D158" s="15"/>
-      <c r="E158" s="2"/>
+      <c r="E158" s="2">
+        <v>7</v>
+      </c>
       <c r="F158" s="15"/>
       <c r="G158" s="2"/>
       <c r="H158" s="15"/>
@@ -3904,10 +4242,16 @@
       <c r="G159" s="2"/>
       <c r="H159" s="15"/>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C160" s="2"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="2"/>
+    <row r="160" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C160" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1</v>
+      </c>
       <c r="F160" s="15"/>
       <c r="G160" s="2"/>
       <c r="H160" s="15"/>
@@ -3915,7 +4259,9 @@
     <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C161" s="2"/>
       <c r="D161" s="15"/>
-      <c r="E161" s="2"/>
+      <c r="E161" s="2">
+        <v>2</v>
+      </c>
       <c r="F161" s="15"/>
       <c r="G161" s="2"/>
       <c r="H161" s="15"/>
@@ -3923,7 +4269,9 @@
     <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C162" s="2"/>
       <c r="D162" s="15"/>
-      <c r="E162" s="2"/>
+      <c r="E162" s="2">
+        <v>3</v>
+      </c>
       <c r="F162" s="15"/>
       <c r="G162" s="2"/>
       <c r="H162" s="15"/>
@@ -3931,7 +4279,9 @@
     <row r="163" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C163" s="2"/>
       <c r="D163" s="15"/>
-      <c r="E163" s="2"/>
+      <c r="E163" s="2">
+        <v>4</v>
+      </c>
       <c r="F163" s="15"/>
       <c r="G163" s="2"/>
       <c r="H163" s="15"/>
@@ -3939,7 +4289,9 @@
     <row r="164" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C164" s="2"/>
       <c r="D164" s="15"/>
-      <c r="E164" s="2"/>
+      <c r="E164" s="2">
+        <v>5</v>
+      </c>
       <c r="F164" s="15"/>
       <c r="G164" s="2"/>
       <c r="H164" s="15"/>
@@ -3947,7 +4299,9 @@
     <row r="165" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C165" s="2"/>
       <c r="D165" s="15"/>
-      <c r="E165" s="2"/>
+      <c r="E165" s="2">
+        <v>6</v>
+      </c>
       <c r="F165" s="15"/>
       <c r="G165" s="2"/>
       <c r="H165" s="15"/>
@@ -3955,7 +4309,9 @@
     <row r="166" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C166" s="2"/>
       <c r="D166" s="15"/>
-      <c r="E166" s="2"/>
+      <c r="E166" s="2">
+        <v>7</v>
+      </c>
       <c r="F166" s="15"/>
       <c r="G166" s="2"/>
       <c r="H166" s="15"/>
@@ -5596,6 +5952,7 @@
       <c r="C371" s="2"/>
       <c r="D371" s="15"/>
       <c r="E371" s="2"/>
+      <c r="F371" s="15"/>
       <c r="G371" s="2"/>
       <c r="H371" s="15"/>
     </row>
@@ -5603,6 +5960,7 @@
       <c r="C372" s="2"/>
       <c r="D372" s="15"/>
       <c r="E372" s="2"/>
+      <c r="F372" s="15"/>
       <c r="G372" s="2"/>
       <c r="H372" s="15"/>
     </row>
@@ -5610,6 +5968,7 @@
       <c r="C373" s="2"/>
       <c r="D373" s="15"/>
       <c r="E373" s="2"/>
+      <c r="F373" s="15"/>
       <c r="G373" s="2"/>
       <c r="H373" s="15"/>
     </row>
@@ -5617,6 +5976,7 @@
       <c r="C374" s="2"/>
       <c r="D374" s="15"/>
       <c r="E374" s="2"/>
+      <c r="F374" s="15"/>
       <c r="G374" s="2"/>
       <c r="H374" s="15"/>
     </row>
@@ -5624,136 +5984,156 @@
       <c r="C375" s="2"/>
       <c r="D375" s="15"/>
       <c r="E375" s="2"/>
+      <c r="F375" s="15"/>
+      <c r="G375" s="2"/>
       <c r="H375" s="15"/>
     </row>
     <row r="376" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C376" s="2"/>
       <c r="D376" s="15"/>
       <c r="E376" s="2"/>
+      <c r="F376" s="15"/>
+      <c r="G376" s="2"/>
       <c r="H376" s="15"/>
     </row>
     <row r="377" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C377" s="2"/>
       <c r="D377" s="15"/>
       <c r="E377" s="2"/>
+      <c r="F377" s="15"/>
+      <c r="G377" s="2"/>
       <c r="H377" s="15"/>
     </row>
     <row r="378" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C378" s="2"/>
       <c r="D378" s="15"/>
       <c r="E378" s="2"/>
+      <c r="F378" s="15"/>
+      <c r="G378" s="2"/>
       <c r="H378" s="15"/>
     </row>
     <row r="379" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C379" s="2"/>
       <c r="D379" s="15"/>
       <c r="E379" s="2"/>
+      <c r="G379" s="2"/>
       <c r="H379" s="15"/>
     </row>
     <row r="380" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C380" s="2"/>
       <c r="D380" s="15"/>
       <c r="E380" s="2"/>
+      <c r="G380" s="2"/>
       <c r="H380" s="15"/>
     </row>
     <row r="381" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C381" s="2"/>
       <c r="D381" s="15"/>
       <c r="E381" s="2"/>
+      <c r="G381" s="2"/>
       <c r="H381" s="15"/>
     </row>
     <row r="382" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C382" s="2"/>
       <c r="D382" s="15"/>
       <c r="E382" s="2"/>
+      <c r="G382" s="2"/>
       <c r="H382" s="15"/>
     </row>
     <row r="383" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C383" s="2"/>
       <c r="D383" s="15"/>
       <c r="E383" s="2"/>
       <c r="H383" s="15"/>
     </row>
     <row r="384" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C384" s="2"/>
       <c r="D384" s="15"/>
       <c r="E384" s="2"/>
       <c r="H384" s="15"/>
     </row>
-    <row r="385" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C385" s="2"/>
       <c r="D385" s="15"/>
       <c r="E385" s="2"/>
       <c r="H385" s="15"/>
     </row>
-    <row r="386" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C386" s="2"/>
       <c r="D386" s="15"/>
       <c r="E386" s="2"/>
       <c r="H386" s="15"/>
     </row>
-    <row r="387" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C387" s="2"/>
       <c r="D387" s="15"/>
       <c r="E387" s="2"/>
       <c r="H387" s="15"/>
     </row>
-    <row r="388" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C388" s="2"/>
       <c r="D388" s="15"/>
       <c r="E388" s="2"/>
       <c r="H388" s="15"/>
     </row>
-    <row r="389" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C389" s="2"/>
       <c r="D389" s="15"/>
       <c r="E389" s="2"/>
       <c r="H389" s="15"/>
     </row>
-    <row r="390" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C390" s="2"/>
       <c r="D390" s="15"/>
       <c r="E390" s="2"/>
       <c r="H390" s="15"/>
     </row>
-    <row r="391" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D391" s="15"/>
       <c r="E391" s="2"/>
       <c r="H391" s="15"/>
     </row>
-    <row r="392" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D392" s="15"/>
       <c r="E392" s="2"/>
       <c r="H392" s="15"/>
     </row>
-    <row r="393" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D393" s="15"/>
       <c r="E393" s="2"/>
       <c r="H393" s="15"/>
     </row>
-    <row r="394" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D394" s="15"/>
       <c r="E394" s="2"/>
       <c r="H394" s="15"/>
     </row>
-    <row r="395" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D395" s="15"/>
       <c r="E395" s="2"/>
       <c r="H395" s="15"/>
     </row>
-    <row r="396" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D396" s="15"/>
       <c r="E396" s="2"/>
       <c r="H396" s="15"/>
     </row>
-    <row r="397" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D397" s="15"/>
       <c r="E397" s="2"/>
       <c r="H397" s="15"/>
     </row>
-    <row r="398" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D398" s="15"/>
       <c r="E398" s="2"/>
       <c r="H398" s="15"/>
     </row>
-    <row r="399" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D399" s="15"/>
       <c r="E399" s="2"/>
       <c r="H399" s="15"/>
     </row>
-    <row r="400" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D400" s="15"/>
       <c r="E400" s="2"/>
       <c r="H400" s="15"/>
@@ -5850,34 +6230,42 @@
     </row>
     <row r="419" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D419" s="15"/>
+      <c r="E419" s="2"/>
       <c r="H419" s="15"/>
     </row>
     <row r="420" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D420" s="15"/>
+      <c r="E420" s="2"/>
       <c r="H420" s="15"/>
     </row>
     <row r="421" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D421" s="15"/>
+      <c r="E421" s="2"/>
       <c r="H421" s="15"/>
     </row>
     <row r="422" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D422" s="15"/>
+      <c r="E422" s="2"/>
       <c r="H422" s="15"/>
     </row>
     <row r="423" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D423" s="15"/>
+      <c r="E423" s="2"/>
       <c r="H423" s="15"/>
     </row>
     <row r="424" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D424" s="15"/>
+      <c r="E424" s="2"/>
       <c r="H424" s="15"/>
     </row>
     <row r="425" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D425" s="15"/>
+      <c r="E425" s="2"/>
       <c r="H425" s="15"/>
     </row>
     <row r="426" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D426" s="15"/>
+      <c r="E426" s="2"/>
       <c r="H426" s="15"/>
     </row>
     <row r="427" spans="4:8" x14ac:dyDescent="0.25">
@@ -5968,56 +6356,96 @@
       <c r="D448" s="15"/>
       <c r="H448" s="15"/>
     </row>
-    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D449" s="15"/>
-    </row>
-    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H449" s="15"/>
+    </row>
+    <row r="450" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D450" s="15"/>
-    </row>
-    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H450" s="15"/>
+    </row>
+    <row r="451" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D451" s="15"/>
-    </row>
-    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H451" s="15"/>
+    </row>
+    <row r="452" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D452" s="15"/>
-    </row>
-    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H452" s="15"/>
+    </row>
+    <row r="453" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D453" s="15"/>
-    </row>
-    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H453" s="15"/>
+    </row>
+    <row r="454" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D454" s="15"/>
-    </row>
-    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H454" s="15"/>
+    </row>
+    <row r="455" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D455" s="15"/>
-    </row>
-    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H455" s="15"/>
+    </row>
+    <row r="456" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D456" s="15"/>
-    </row>
-    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H456" s="15"/>
+    </row>
+    <row r="457" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D457" s="15"/>
     </row>
-    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D458" s="15"/>
     </row>
-    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D459" s="15"/>
     </row>
-    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D460" s="15"/>
     </row>
-    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D461" s="15"/>
     </row>
-    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D462" s="15"/>
     </row>
-    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D463" s="15"/>
+    </row>
+    <row r="464" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D464" s="15"/>
+    </row>
+    <row r="465" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D465" s="15"/>
+      <c r="F465"/>
+    </row>
+    <row r="466" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D466" s="15"/>
+      <c r="F466"/>
+    </row>
+    <row r="467" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D467" s="15"/>
+      <c r="F467"/>
+    </row>
+    <row r="468" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D468" s="15"/>
+      <c r="F468"/>
+    </row>
+    <row r="469" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D469" s="15"/>
+      <c r="F469"/>
+    </row>
+    <row r="470" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D470" s="15"/>
+      <c r="F470"/>
+    </row>
+    <row r="471" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D471" s="15"/>
+      <c r="F471"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
+    <hyperlink ref="G42" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/OpenCart Project/OpenCart.xlsx
+++ b/OpenCart Project/OpenCart.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="205">
   <si>
     <t>Date:</t>
   </si>
@@ -530,9 +530,6 @@
     <t>To validate that lastname inputbox only acepts alphabets and no any other character.</t>
   </si>
   <si>
-    <t>To validate that firstname inputbox only acepts alphabets and no any other character.</t>
-  </si>
-  <si>
     <t>TC_013</t>
   </si>
   <si>
@@ -614,10 +611,40 @@
     <t>Select either Yes or No.</t>
   </si>
   <si>
-    <t>Checkbox should get unchecked.</t>
-  </si>
-  <si>
     <t>After pressing continue button user should get "Enter required field" error message and should not be redirected to login page.</t>
+  </si>
+  <si>
+    <t>It will show default selection.</t>
+  </si>
+  <si>
+    <t>Default selection for check box.</t>
+  </si>
+  <si>
+    <t>Should display nothing.</t>
+  </si>
+  <si>
+    <t>Click on firstname inputbox and enter something.</t>
+  </si>
+  <si>
+    <t>Keep it default.</t>
+  </si>
+  <si>
+    <t>Check the checkbox.</t>
+  </si>
+  <si>
+    <t>After pressing continue button user should get "Enter valid details" message and should not be redirected to login page.</t>
+  </si>
+  <si>
+    <t>After pressing continue button user should get "User is already Registered" message and should be redirected to login page.</t>
+  </si>
+  <si>
+    <t>Something should be displayed in inputbox.</t>
+  </si>
+  <si>
+    <t>pankajkumar@gmail.com</t>
+  </si>
+  <si>
+    <t>To validate that firstname inputbox only accepts alphabets and no any other character.</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1112,7 @@
   <dimension ref="B3:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E219"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2299,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="D55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,7 +2337,7 @@
     <col min="4" max="4" width="32.140625" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="39.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="41.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -2497,7 +2524,7 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>112</v>
@@ -2943,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>94</v>
@@ -2959,7 +2986,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>95</v>
@@ -2975,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>96</v>
@@ -2991,7 +3018,7 @@
         <v>4</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>97</v>
@@ -3007,13 +3034,13 @@
         <v>5</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -3023,7 +3050,7 @@
         <v>6</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>99</v>
@@ -3043,7 +3070,7 @@
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.25">
@@ -3065,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>12</v>
@@ -3081,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>12</v>
@@ -3097,7 +3124,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>12</v>
@@ -3113,7 +3140,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>12</v>
@@ -3129,7 +3156,7 @@
         <v>5</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>98</v>
@@ -3145,13 +3172,13 @@
         <v>6</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>194</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="45" x14ac:dyDescent="0.25">
@@ -3165,7 +3192,7 @@
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
@@ -3186,9 +3213,15 @@
       <c r="E56" s="2">
         <v>1</v>
       </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="15"/>
+      <c r="F56" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
@@ -3196,9 +3229,15 @@
       <c r="E57" s="2">
         <v>2</v>
       </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="15"/>
+      <c r="F57" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
@@ -3206,9 +3245,15 @@
       <c r="E58" s="2">
         <v>3</v>
       </c>
-      <c r="F58" s="15"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="15"/>
+      <c r="F58" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
@@ -3216,9 +3261,15 @@
       <c r="E59" s="2">
         <v>4</v>
       </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="15"/>
+      <c r="F59" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
@@ -3226,9 +3277,15 @@
       <c r="E60" s="2">
         <v>5</v>
       </c>
-      <c r="F60" s="15"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="15"/>
+      <c r="F60" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
@@ -3236,19 +3293,29 @@
       <c r="E61" s="2">
         <v>6</v>
       </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="15"/>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F61" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="15"/>
       <c r="E62" s="2">
         <v>7</v>
       </c>
-      <c r="F62" s="15"/>
+      <c r="F62" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="G62" s="2"/>
-      <c r="H62" s="15"/>
+      <c r="H62" s="15" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
@@ -3268,39 +3335,63 @@
       <c r="E64" s="2">
         <v>1</v>
       </c>
-      <c r="F64" s="15"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="15"/>
-    </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="15"/>
       <c r="E65" s="2">
         <v>2</v>
       </c>
-      <c r="F65" s="15"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="15"/>
-    </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F65" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="15"/>
       <c r="E66" s="2">
         <v>3</v>
       </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="15"/>
-    </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F66" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="15"/>
       <c r="E67" s="2">
         <v>4</v>
       </c>
-      <c r="F67" s="15"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="15"/>
+      <c r="F67" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
@@ -3308,9 +3399,15 @@
       <c r="E68" s="2">
         <v>5</v>
       </c>
-      <c r="F68" s="15"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="15"/>
+      <c r="F68" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
@@ -3318,19 +3415,29 @@
       <c r="E69" s="2">
         <v>6</v>
       </c>
-      <c r="F69" s="15"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="15"/>
-    </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F69" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
       <c r="D70" s="15"/>
       <c r="E70" s="2">
         <v>7</v>
       </c>
-      <c r="F70" s="15"/>
+      <c r="F70" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="G70" s="2"/>
-      <c r="H70" s="15"/>
+      <c r="H70" s="15" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
@@ -3350,39 +3457,63 @@
       <c r="E72" s="2">
         <v>1</v>
       </c>
-      <c r="F72" s="15"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="15"/>
-    </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F72" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="15"/>
       <c r="E73" s="2">
         <v>2</v>
       </c>
-      <c r="F73" s="15"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="15"/>
-    </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F73" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="15"/>
       <c r="E74" s="2">
         <v>3</v>
       </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="15"/>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F74" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="15"/>
       <c r="E75" s="2">
         <v>4</v>
       </c>
-      <c r="F75" s="15"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="15"/>
+      <c r="F75" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
@@ -3390,29 +3521,45 @@
       <c r="E76" s="2">
         <v>5</v>
       </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="15"/>
-    </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F76" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="15"/>
       <c r="E77" s="2">
         <v>6</v>
       </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="15"/>
-    </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F77" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="15"/>
       <c r="E78" s="2">
         <v>7</v>
       </c>
-      <c r="F78" s="15"/>
+      <c r="F78" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="G78" s="2"/>
-      <c r="H78" s="15"/>
+      <c r="H78" s="15" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
@@ -3432,39 +3579,63 @@
       <c r="E80" s="2">
         <v>1</v>
       </c>
-      <c r="F80" s="15"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="15"/>
-    </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F80" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="D81" s="15"/>
       <c r="E81" s="2">
         <v>2</v>
       </c>
-      <c r="F81" s="15"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="15"/>
-    </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F81" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
       <c r="D82" s="15"/>
       <c r="E82" s="2">
         <v>3</v>
       </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="15"/>
-    </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F82" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
       <c r="D83" s="15"/>
       <c r="E83" s="2">
         <v>4</v>
       </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="15"/>
+      <c r="F83" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
@@ -3472,29 +3643,45 @@
       <c r="E84" s="2">
         <v>5</v>
       </c>
-      <c r="F84" s="15"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="15"/>
-    </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F84" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
       <c r="D85" s="15"/>
       <c r="E85" s="2">
         <v>6</v>
       </c>
-      <c r="F85" s="15"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="15"/>
-    </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F85" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="D86" s="15"/>
       <c r="E86" s="2">
         <v>7</v>
       </c>
-      <c r="F86" s="15"/>
+      <c r="F86" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="15"/>
+      <c r="H86" s="15" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
@@ -3509,7 +3696,7 @@
         <v>163</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="E88" s="2">
         <v>1</v>
@@ -3670,10 +3857,10 @@
     </row>
     <row r="104" spans="3:8" ht="60" x14ac:dyDescent="0.25">
       <c r="C104" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D104" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>168</v>
       </c>
       <c r="E104" s="2">
         <v>1</v>
@@ -3752,10 +3939,10 @@
     </row>
     <row r="112" spans="3:8" ht="60" x14ac:dyDescent="0.25">
       <c r="C112" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D112" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="E112" s="2">
         <v>1</v>
@@ -3834,10 +4021,10 @@
     </row>
     <row r="120" spans="3:8" ht="75" x14ac:dyDescent="0.25">
       <c r="C120" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E120" s="2">
         <v>1</v>
@@ -3916,10 +4103,10 @@
     </row>
     <row r="128" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C128" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E128" s="2">
         <v>1</v>
@@ -3998,10 +4185,10 @@
     </row>
     <row r="136" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C136" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D136" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="D136" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="E136" s="2">
         <v>1</v>
@@ -4080,10 +4267,10 @@
     </row>
     <row r="144" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C144" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D144" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="D144" s="15" t="s">
-        <v>178</v>
       </c>
       <c r="E144" s="2">
         <v>1</v>
@@ -4162,10 +4349,10 @@
     </row>
     <row r="152" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C152" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D152" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="E152" s="2">
         <v>1</v>
@@ -4244,10 +4431,10 @@
     </row>
     <row r="160" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C160" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D160" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="D160" s="15" t="s">
-        <v>182</v>
       </c>
       <c r="E160" s="2">
         <v>1</v>
@@ -6444,8 +6631,10 @@
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
     <hyperlink ref="G42" r:id="rId2"/>
+    <hyperlink ref="G74" r:id="rId3"/>
+    <hyperlink ref="G82" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>